--- a/転位計算シート.xlsx
+++ b/転位計算シート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzho\Documents\GitHub\srdc_ksh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8677685-1613-4C63-BA18-B68199E2CE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D756CAC-567D-4190-A397-D2EE3D05F285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="転位計算1" sheetId="2" r:id="rId1"/>
@@ -268,11 +268,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -286,7 +286,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -295,7 +295,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1334,18 +1334,18 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1">
+    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1361,7 +1361,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1369,10 +1369,10 @@
         <v>15</v>
       </c>
       <c r="D2" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -1388,7 +1388,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1453,10 +1453,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1472,7 +1472,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="D7" s="5">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>1.9454084416752119E-2</v>
+        <v>3.4757378357490168E-2</v>
       </c>
       <c r="E7" s="6">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>1.9454084416752119E-2</v>
+        <v>3.4757378357490168E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1528,7 +1528,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="D8" s="5">
         <f>D9*180/3.14</f>
-        <v>21.798291461142405</v>
+        <v>26.206809464259063</v>
       </c>
       <c r="E8" s="6">
         <f>D9*180/3.14</f>
-        <v>21.798291461142405</v>
+        <v>26.206809464259063</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1557,7 +1557,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D9" s="5">
         <f>inv逆関数!B100</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="E9" s="6">
         <f>inv逆関数!B100</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1586,7 +1586,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" ht="18.75">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="D10" s="5">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.53054748106259808</v>
+        <v>0.52089941369409165</v>
       </c>
       <c r="E10" s="6">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.53054748106259808</v>
+        <v>0.52089941369409165</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="10"/>
@@ -1616,7 +1616,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="D11" s="5">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>22.265273740531299</v>
+        <v>23.041798827388185</v>
       </c>
       <c r="E11" s="6">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>22.265273740531299</v>
+        <v>23.041798827388185</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1649,7 +1649,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="45">
+    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -1691,15 +1691,15 @@
       </c>
       <c r="D13" s="5">
         <f>D11+D2*0.1</f>
-        <v>22.3152737405313</v>
+        <v>23.241798827388184</v>
       </c>
       <c r="E13" s="6">
         <f>D11+D2*0.1</f>
-        <v>22.3152737405313</v>
+        <v>23.241798827388184</v>
       </c>
       <c r="F13">
         <f>D11+0.1</f>
-        <v>22.3652737405313</v>
+        <v>23.141798827388186</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
@@ -1712,7 +1712,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="D14" s="5">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>1.1152737405312991</v>
+        <v>4.3417988273881827</v>
       </c>
       <c r="E14" s="6">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>1.1152737405312991</v>
+        <v>4.3417988273881827</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="10"/>
@@ -1738,7 +1738,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="D15" s="5">
         <f>(1+D10-E6)*D2*2+D2*D5</f>
-        <v>5.5305474810625981</v>
+        <v>20.083597654776366</v>
       </c>
       <c r="E15" s="6">
         <f>(1+D10-D6)*D2*2+D2*E5</f>
-        <v>40.980547481062601</v>
+        <v>33.683597654776364</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="10"/>
@@ -1764,7 +1764,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1">
+    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1773,11 +1773,11 @@
       </c>
       <c r="D16" s="7">
         <f>D15-D14*2</f>
-        <v>3.3</v>
+        <v>11.4</v>
       </c>
       <c r="E16" s="8">
         <f>E15-E14*2</f>
-        <v>38.75</v>
+        <v>25</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
@@ -1790,7 +1790,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1801,11 +1801,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -1830,15 +1830,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1">
+    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1854,7 +1854,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" ht="18.75">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="45">
+    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1">
+    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2284,11 +2284,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -2313,15 +2313,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1">
+    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2337,7 +2337,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" ht="18.75">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="45">
+    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1">
+    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2767,11 +2767,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -2796,12 +2796,12 @@
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3">
         <f>1+(転位計算1!D$7-TAN(1)+1)/TAN(1)^2</f>
-        <v>0.77821089837701396</v>
+        <v>0.78452018520233624</v>
       </c>
       <c r="C3">
         <f>1+(転位計算2!D$7-TAN(1)+1)/TAN(1)^2</f>
@@ -2812,10 +2812,10 @@
         <v>0.78052284948899564</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4">
         <f>B3+(転位計算1!D$7-TAN(B3)+B3)/TAN(B3)^2</f>
-        <v>0.58466279005747324</v>
+        <v>0.60492253991614442</v>
       </c>
       <c r="C4">
         <f>C3+(転位計算2!D$7-TAN(C3)+C3)/TAN(C3)^2</f>
@@ -2826,10 +2826,10 @@
         <v>0.59217333570403907</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B5">
         <f>B4+(転位計算1!D$7-TAN(B4)+B4)/TAN(B4)^2</f>
-        <v>0.45285965516822912</v>
+        <v>0.49675094559373034</v>
       </c>
       <c r="C5">
         <f>C4+(転位計算2!D$7-TAN(C4)+C4)/TAN(C4)^2</f>
@@ -2840,10 +2840,10 @@
         <v>0.4695912633997244</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B6">
         <f>B5+(転位計算1!D$7-TAN(B5)+B5)/TAN(B5)^2</f>
-        <v>0.39257608558543922</v>
+        <v>0.46073788318333403</v>
       </c>
       <c r="C6">
         <f>C5+(転位計算2!D$7-TAN(C5)+C5)/TAN(C5)^2</f>
@@ -2854,10 +2854,10 @@
         <v>0.41988870761084074</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7">
         <f>B6+(転位計算1!D$7-TAN(B6)+B6)/TAN(B6)^2</f>
-        <v>0.38068189570842181</v>
+        <v>0.45719518409982796</v>
       </c>
       <c r="C7">
         <f>C6+(転位計算2!D$7-TAN(C6)+C6)/TAN(C6)^2</f>
@@ -2868,10 +2868,10 @@
         <v>0.41241989525225758</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8">
         <f>B7+(転位計算1!D$7-TAN(B7)+B7)/TAN(B7)^2</f>
-        <v>0.380259602347922</v>
+        <v>0.45716323434285216</v>
       </c>
       <c r="C8">
         <f>C7+(転位計算2!D$7-TAN(C7)+C7)/TAN(C7)^2</f>
@@ -2882,10 +2882,10 @@
         <v>0.41226524480582472</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B9">
         <f>B8+(転位計算1!D$7-TAN(B8)+B8)/TAN(B8)^2</f>
-        <v>0.38025908437848499</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C9">
         <f>C8+(転位計算2!D$7-TAN(C8)+C8)/TAN(C8)^2</f>
@@ -2896,10 +2896,10 @@
         <v>0.41226517963370019</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f>B9+(転位計算1!D$7-TAN(B9)+B9)/TAN(B9)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C10">
         <f>C9+(転位計算2!D$7-TAN(C9)+C9)/TAN(C9)^2</f>
@@ -2910,10 +2910,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <f>B10+(転位計算1!D$7-TAN(B10)+B10)/TAN(B10)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C11">
         <f>C10+(転位計算2!D$7-TAN(C10)+C10)/TAN(C10)^2</f>
@@ -2924,10 +2924,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12">
         <f>B11+(転位計算1!D$7-TAN(B11)+B11)/TAN(B11)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C12">
         <f>C11+(転位計算2!D$7-TAN(C11)+C11)/TAN(C11)^2</f>
@@ -2938,10 +2938,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13">
         <f>B12+(転位計算1!D$7-TAN(B12)+B12)/TAN(B12)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C13">
         <f>C12+(転位計算2!D$7-TAN(C12)+C12)/TAN(C12)^2</f>
@@ -2952,10 +2952,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B14">
         <f>B13+(転位計算1!D$7-TAN(B13)+B13)/TAN(B13)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C14">
         <f>C13+(転位計算2!D$7-TAN(C13)+C13)/TAN(C13)^2</f>
@@ -2966,10 +2966,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B15">
         <f>B14+(転位計算1!D$7-TAN(B14)+B14)/TAN(B14)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C15">
         <f>C14+(転位計算2!D$7-TAN(C14)+C14)/TAN(C14)^2</f>
@@ -2980,10 +2980,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16">
         <f>B15+(転位計算1!D$7-TAN(B15)+B15)/TAN(B15)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C16">
         <f>C15+(転位計算2!D$7-TAN(C15)+C15)/TAN(C15)^2</f>
@@ -2994,10 +2994,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17">
         <f>B16+(転位計算1!D$7-TAN(B16)+B16)/TAN(B16)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C17">
         <f>C16+(転位計算2!D$7-TAN(C16)+C16)/TAN(C16)^2</f>
@@ -3008,10 +3008,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18">
         <f>B17+(転位計算1!D$7-TAN(B17)+B17)/TAN(B17)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C18">
         <f>C17+(転位計算2!D$7-TAN(C17)+C17)/TAN(C17)^2</f>
@@ -3022,10 +3022,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B19">
         <f>B18+(転位計算1!D$7-TAN(B18)+B18)/TAN(B18)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C19">
         <f>C18+(転位計算2!D$7-TAN(C18)+C18)/TAN(C18)^2</f>
@@ -3036,10 +3036,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20">
         <f>B19+(転位計算1!D$7-TAN(B19)+B19)/TAN(B19)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C20">
         <f>C19+(転位計算2!D$7-TAN(C19)+C19)/TAN(C19)^2</f>
@@ -3050,10 +3050,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21">
         <f>B20+(転位計算1!D$7-TAN(B20)+B20)/TAN(B20)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C21">
         <f>C20+(転位計算2!D$7-TAN(C20)+C20)/TAN(C20)^2</f>
@@ -3064,10 +3064,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22">
         <f>B21+(転位計算1!D$7-TAN(B21)+B21)/TAN(B21)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C22">
         <f>C21+(転位計算2!D$7-TAN(C21)+C21)/TAN(C21)^2</f>
@@ -3078,10 +3078,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23">
         <f>B22+(転位計算1!D$7-TAN(B22)+B22)/TAN(B22)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C23">
         <f>C22+(転位計算2!D$7-TAN(C22)+C22)/TAN(C22)^2</f>
@@ -3092,10 +3092,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24">
         <f>B23+(転位計算1!D$7-TAN(B23)+B23)/TAN(B23)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C24">
         <f>C23+(転位計算2!D$7-TAN(C23)+C23)/TAN(C23)^2</f>
@@ -3106,10 +3106,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25">
         <f>B24+(転位計算1!D$7-TAN(B24)+B24)/TAN(B24)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C25">
         <f>C24+(転位計算2!D$7-TAN(C24)+C24)/TAN(C24)^2</f>
@@ -3120,10 +3120,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B26">
         <f>B25+(転位計算1!D$7-TAN(B25)+B25)/TAN(B25)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C26">
         <f>C25+(転位計算2!D$7-TAN(C25)+C25)/TAN(C25)^2</f>
@@ -3134,10 +3134,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27">
         <f>B26+(転位計算1!D$7-TAN(B26)+B26)/TAN(B26)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C27">
         <f>C26+(転位計算2!D$7-TAN(C26)+C26)/TAN(C26)^2</f>
@@ -3148,10 +3148,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28">
         <f>B27+(転位計算1!D$7-TAN(B27)+B27)/TAN(B27)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C28">
         <f>C27+(転位計算2!D$7-TAN(C27)+C27)/TAN(C27)^2</f>
@@ -3162,10 +3162,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B29">
         <f>B28+(転位計算1!D$7-TAN(B28)+B28)/TAN(B28)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C29">
         <f>C28+(転位計算2!D$7-TAN(C28)+C28)/TAN(C28)^2</f>
@@ -3176,10 +3176,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B30">
         <f>B29+(転位計算1!D$7-TAN(B29)+B29)/TAN(B29)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C30">
         <f>C29+(転位計算2!D$7-TAN(C29)+C29)/TAN(C29)^2</f>
@@ -3190,10 +3190,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31">
         <f>B30+(転位計算1!D$7-TAN(B30)+B30)/TAN(B30)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C31">
         <f>C30+(転位計算2!D$7-TAN(C30)+C30)/TAN(C30)^2</f>
@@ -3204,10 +3204,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32">
         <f>B31+(転位計算1!D$7-TAN(B31)+B31)/TAN(B31)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C32">
         <f>C31+(転位計算2!D$7-TAN(C31)+C31)/TAN(C31)^2</f>
@@ -3218,10 +3218,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B33">
         <f>B32+(転位計算1!D$7-TAN(B32)+B32)/TAN(B32)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C33">
         <f>C32+(転位計算2!D$7-TAN(C32)+C32)/TAN(C32)^2</f>
@@ -3232,10 +3232,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B34">
         <f>B33+(転位計算1!D$7-TAN(B33)+B33)/TAN(B33)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C34">
         <f>C33+(転位計算2!D$7-TAN(C33)+C33)/TAN(C33)^2</f>
@@ -3246,10 +3246,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B35">
         <f>B34+(転位計算1!D$7-TAN(B34)+B34)/TAN(B34)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C35">
         <f>C34+(転位計算2!D$7-TAN(C34)+C34)/TAN(C34)^2</f>
@@ -3260,10 +3260,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B36">
         <f>B35+(転位計算1!D$7-TAN(B35)+B35)/TAN(B35)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C36">
         <f>C35+(転位計算2!D$7-TAN(C35)+C35)/TAN(C35)^2</f>
@@ -3274,10 +3274,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B37">
         <f>B36+(転位計算1!D$7-TAN(B36)+B36)/TAN(B36)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C37">
         <f>C36+(転位計算2!D$7-TAN(C36)+C36)/TAN(C36)^2</f>
@@ -3288,10 +3288,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38">
         <f>B37+(転位計算1!D$7-TAN(B37)+B37)/TAN(B37)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C38">
         <f>C37+(転位計算2!D$7-TAN(C37)+C37)/TAN(C37)^2</f>
@@ -3302,10 +3302,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B39">
         <f>B38+(転位計算1!D$7-TAN(B38)+B38)/TAN(B38)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C39">
         <f>C38+(転位計算2!D$7-TAN(C38)+C38)/TAN(C38)^2</f>
@@ -3316,10 +3316,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B40">
         <f>B39+(転位計算1!D$7-TAN(B39)+B39)/TAN(B39)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C40">
         <f>C39+(転位計算2!D$7-TAN(C39)+C39)/TAN(C39)^2</f>
@@ -3330,10 +3330,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B41">
         <f>B40+(転位計算1!D$7-TAN(B40)+B40)/TAN(B40)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C41">
         <f>C40+(転位計算2!D$7-TAN(C40)+C40)/TAN(C40)^2</f>
@@ -3344,10 +3344,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42">
         <f>B41+(転位計算1!D$7-TAN(B41)+B41)/TAN(B41)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C42">
         <f>C41+(転位計算2!D$7-TAN(C41)+C41)/TAN(C41)^2</f>
@@ -3358,10 +3358,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B43">
         <f>B42+(転位計算1!D$7-TAN(B42)+B42)/TAN(B42)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C43">
         <f>C42+(転位計算2!D$7-TAN(C42)+C42)/TAN(C42)^2</f>
@@ -3372,10 +3372,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B44">
         <f>B43+(転位計算1!D$7-TAN(B43)+B43)/TAN(B43)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C44">
         <f>C43+(転位計算2!D$7-TAN(C43)+C43)/TAN(C43)^2</f>
@@ -3386,10 +3386,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B45">
         <f>B44+(転位計算1!D$7-TAN(B44)+B44)/TAN(B44)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C45">
         <f>C44+(転位計算2!D$7-TAN(C44)+C44)/TAN(C44)^2</f>
@@ -3400,10 +3400,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B46">
         <f>B45+(転位計算1!D$7-TAN(B45)+B45)/TAN(B45)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C46">
         <f>C45+(転位計算2!D$7-TAN(C45)+C45)/TAN(C45)^2</f>
@@ -3414,10 +3414,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B47">
         <f>B46+(転位計算1!D$7-TAN(B46)+B46)/TAN(B46)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C47">
         <f>C46+(転位計算2!D$7-TAN(C46)+C46)/TAN(C46)^2</f>
@@ -3428,10 +3428,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B48">
         <f>B47+(転位計算1!D$7-TAN(B47)+B47)/TAN(B47)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C48">
         <f>C47+(転位計算2!D$7-TAN(C47)+C47)/TAN(C47)^2</f>
@@ -3442,10 +3442,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B49">
         <f>B48+(転位計算1!D$7-TAN(B48)+B48)/TAN(B48)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C49">
         <f>C48+(転位計算2!D$7-TAN(C48)+C48)/TAN(C48)^2</f>
@@ -3456,10 +3456,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50">
         <f>B49+(転位計算1!D$7-TAN(B49)+B49)/TAN(B49)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C50">
         <f>C49+(転位計算2!D$7-TAN(C49)+C49)/TAN(C49)^2</f>
@@ -3470,10 +3470,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B51">
         <f>B50+(転位計算1!D$7-TAN(B50)+B50)/TAN(B50)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C51">
         <f>C50+(転位計算2!D$7-TAN(C50)+C50)/TAN(C50)^2</f>
@@ -3484,10 +3484,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52">
         <f>B51+(転位計算1!D$7-TAN(B51)+B51)/TAN(B51)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C52">
         <f>C51+(転位計算2!D$7-TAN(C51)+C51)/TAN(C51)^2</f>
@@ -3498,10 +3498,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53">
         <f>B52+(転位計算1!D$7-TAN(B52)+B52)/TAN(B52)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C53">
         <f>C52+(転位計算2!D$7-TAN(C52)+C52)/TAN(C52)^2</f>
@@ -3512,10 +3512,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B54">
         <f>B53+(転位計算1!D$7-TAN(B53)+B53)/TAN(B53)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C54">
         <f>C53+(転位計算2!D$7-TAN(C53)+C53)/TAN(C53)^2</f>
@@ -3526,10 +3526,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B55">
         <f>B54+(転位計算1!D$7-TAN(B54)+B54)/TAN(B54)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C55">
         <f>C54+(転位計算2!D$7-TAN(C54)+C54)/TAN(C54)^2</f>
@@ -3540,10 +3540,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B56">
         <f>B55+(転位計算1!D$7-TAN(B55)+B55)/TAN(B55)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C56">
         <f>C55+(転位計算2!D$7-TAN(C55)+C55)/TAN(C55)^2</f>
@@ -3554,10 +3554,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57">
         <f>B56+(転位計算1!D$7-TAN(B56)+B56)/TAN(B56)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C57">
         <f>C56+(転位計算2!D$7-TAN(C56)+C56)/TAN(C56)^2</f>
@@ -3568,10 +3568,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B58">
         <f>B57+(転位計算1!D$7-TAN(B57)+B57)/TAN(B57)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C58">
         <f>C57+(転位計算2!D$7-TAN(C57)+C57)/TAN(C57)^2</f>
@@ -3582,10 +3582,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B59">
         <f>B58+(転位計算1!D$7-TAN(B58)+B58)/TAN(B58)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C59">
         <f>C58+(転位計算2!D$7-TAN(C58)+C58)/TAN(C58)^2</f>
@@ -3596,10 +3596,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B60">
         <f>B59+(転位計算1!D$7-TAN(B59)+B59)/TAN(B59)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C60">
         <f>C59+(転位計算2!D$7-TAN(C59)+C59)/TAN(C59)^2</f>
@@ -3610,10 +3610,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B61">
         <f>B60+(転位計算1!D$7-TAN(B60)+B60)/TAN(B60)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C61">
         <f>C60+(転位計算2!D$7-TAN(C60)+C60)/TAN(C60)^2</f>
@@ -3624,10 +3624,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B62">
         <f>B61+(転位計算1!D$7-TAN(B61)+B61)/TAN(B61)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C62">
         <f>C61+(転位計算2!D$7-TAN(C61)+C61)/TAN(C61)^2</f>
@@ -3638,10 +3638,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B63">
         <f>B62+(転位計算1!D$7-TAN(B62)+B62)/TAN(B62)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C63">
         <f>C62+(転位計算2!D$7-TAN(C62)+C62)/TAN(C62)^2</f>
@@ -3652,10 +3652,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64">
         <f>B63+(転位計算1!D$7-TAN(B63)+B63)/TAN(B63)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C64">
         <f>C63+(転位計算2!D$7-TAN(C63)+C63)/TAN(C63)^2</f>
@@ -3666,10 +3666,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B65">
         <f>B64+(転位計算1!D$7-TAN(B64)+B64)/TAN(B64)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C65">
         <f>C64+(転位計算2!D$7-TAN(C64)+C64)/TAN(C64)^2</f>
@@ -3680,10 +3680,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B66">
         <f>B65+(転位計算1!D$7-TAN(B65)+B65)/TAN(B65)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C66">
         <f>C65+(転位計算2!D$7-TAN(C65)+C65)/TAN(C65)^2</f>
@@ -3694,10 +3694,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B67">
         <f>B66+(転位計算1!D$7-TAN(B66)+B66)/TAN(B66)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C67">
         <f>C66+(転位計算2!D$7-TAN(C66)+C66)/TAN(C66)^2</f>
@@ -3708,10 +3708,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B68">
         <f>B67+(転位計算1!D$7-TAN(B67)+B67)/TAN(B67)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C68">
         <f>C67+(転位計算2!D$7-TAN(C67)+C67)/TAN(C67)^2</f>
@@ -3722,10 +3722,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B69">
         <f>B68+(転位計算1!D$7-TAN(B68)+B68)/TAN(B68)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C69">
         <f>C68+(転位計算2!D$7-TAN(C68)+C68)/TAN(C68)^2</f>
@@ -3736,10 +3736,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B70">
         <f>B69+(転位計算1!D$7-TAN(B69)+B69)/TAN(B69)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C70">
         <f>C69+(転位計算2!D$7-TAN(C69)+C69)/TAN(C69)^2</f>
@@ -3750,10 +3750,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B71">
         <f>B70+(転位計算1!D$7-TAN(B70)+B70)/TAN(B70)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C71">
         <f>C70+(転位計算2!D$7-TAN(C70)+C70)/TAN(C70)^2</f>
@@ -3764,10 +3764,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B72">
         <f>B71+(転位計算1!D$7-TAN(B71)+B71)/TAN(B71)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C72">
         <f>C71+(転位計算2!D$7-TAN(C71)+C71)/TAN(C71)^2</f>
@@ -3778,10 +3778,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B73">
         <f>B72+(転位計算1!D$7-TAN(B72)+B72)/TAN(B72)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C73">
         <f>C72+(転位計算2!D$7-TAN(C72)+C72)/TAN(C72)^2</f>
@@ -3792,10 +3792,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B74">
         <f>B73+(転位計算1!D$7-TAN(B73)+B73)/TAN(B73)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C74">
         <f>C73+(転位計算2!D$7-TAN(C73)+C73)/TAN(C73)^2</f>
@@ -3806,10 +3806,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B75">
         <f>B74+(転位計算1!D$7-TAN(B74)+B74)/TAN(B74)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C75">
         <f>C74+(転位計算2!D$7-TAN(C74)+C74)/TAN(C74)^2</f>
@@ -3820,10 +3820,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B76">
         <f>B75+(転位計算1!D$7-TAN(B75)+B75)/TAN(B75)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C76">
         <f>C75+(転位計算2!D$7-TAN(C75)+C75)/TAN(C75)^2</f>
@@ -3834,10 +3834,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B77">
         <f>B76+(転位計算1!D$7-TAN(B76)+B76)/TAN(B76)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C77">
         <f>C76+(転位計算2!D$7-TAN(C76)+C76)/TAN(C76)^2</f>
@@ -3848,10 +3848,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B78">
         <f>B77+(転位計算1!D$7-TAN(B77)+B77)/TAN(B77)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C78">
         <f>C77+(転位計算2!D$7-TAN(C77)+C77)/TAN(C77)^2</f>
@@ -3862,10 +3862,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B79">
         <f>B78+(転位計算1!D$7-TAN(B78)+B78)/TAN(B78)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C79">
         <f>C78+(転位計算2!D$7-TAN(C78)+C78)/TAN(C78)^2</f>
@@ -3876,10 +3876,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B80">
         <f>B79+(転位計算1!D$7-TAN(B79)+B79)/TAN(B79)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C80">
         <f>C79+(転位計算2!D$7-TAN(C79)+C79)/TAN(C79)^2</f>
@@ -3890,10 +3890,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B81">
         <f>B80+(転位計算1!D$7-TAN(B80)+B80)/TAN(B80)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C81">
         <f>C80+(転位計算2!D$7-TAN(C80)+C80)/TAN(C80)^2</f>
@@ -3904,10 +3904,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B82">
         <f>B81+(転位計算1!D$7-TAN(B81)+B81)/TAN(B81)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C82">
         <f>C81+(転位計算2!D$7-TAN(C81)+C81)/TAN(C81)^2</f>
@@ -3918,10 +3918,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B83">
         <f>B82+(転位計算1!D$7-TAN(B82)+B82)/TAN(B82)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C83">
         <f>C82+(転位計算2!D$7-TAN(C82)+C82)/TAN(C82)^2</f>
@@ -3932,10 +3932,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B84">
         <f>B83+(転位計算1!D$7-TAN(B83)+B83)/TAN(B83)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C84">
         <f>C83+(転位計算2!D$7-TAN(C83)+C83)/TAN(C83)^2</f>
@@ -3946,10 +3946,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B85">
         <f>B84+(転位計算1!D$7-TAN(B84)+B84)/TAN(B84)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C85">
         <f>C84+(転位計算2!D$7-TAN(C84)+C84)/TAN(C84)^2</f>
@@ -3960,10 +3960,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B86">
         <f>B85+(転位計算1!D$7-TAN(B85)+B85)/TAN(B85)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C86">
         <f>C85+(転位計算2!D$7-TAN(C85)+C85)/TAN(C85)^2</f>
@@ -3974,10 +3974,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B87">
         <f>B86+(転位計算1!D$7-TAN(B86)+B86)/TAN(B86)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C87">
         <f>C86+(転位計算2!D$7-TAN(C86)+C86)/TAN(C86)^2</f>
@@ -3988,10 +3988,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B88">
         <f>B87+(転位計算1!D$7-TAN(B87)+B87)/TAN(B87)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C88">
         <f>C87+(転位計算2!D$7-TAN(C87)+C87)/TAN(C87)^2</f>
@@ -4002,10 +4002,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B89">
         <f>B88+(転位計算1!D$7-TAN(B88)+B88)/TAN(B88)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C89">
         <f>C88+(転位計算2!D$7-TAN(C88)+C88)/TAN(C88)^2</f>
@@ -4016,10 +4016,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B90">
         <f>B89+(転位計算1!D$7-TAN(B89)+B89)/TAN(B89)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C90">
         <f>C89+(転位計算2!D$7-TAN(C89)+C89)/TAN(C89)^2</f>
@@ -4030,10 +4030,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B91">
         <f>B90+(転位計算1!D$7-TAN(B90)+B90)/TAN(B90)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C91">
         <f>C90+(転位計算2!D$7-TAN(C90)+C90)/TAN(C90)^2</f>
@@ -4044,10 +4044,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B92">
         <f>B91+(転位計算1!D$7-TAN(B91)+B91)/TAN(B91)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C92">
         <f>C91+(転位計算2!D$7-TAN(C91)+C91)/TAN(C91)^2</f>
@@ -4058,10 +4058,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B93">
         <f>B92+(転位計算1!D$7-TAN(B92)+B92)/TAN(B92)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C93">
         <f>C92+(転位計算2!D$7-TAN(C92)+C92)/TAN(C92)^2</f>
@@ -4072,10 +4072,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B94">
         <f>B93+(転位計算1!D$7-TAN(B93)+B93)/TAN(B93)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C94">
         <f>C93+(転位計算2!D$7-TAN(C93)+C93)/TAN(C93)^2</f>
@@ -4086,10 +4086,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B95">
         <f>B94+(転位計算1!D$7-TAN(B94)+B94)/TAN(B94)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C95">
         <f>C94+(転位計算2!D$7-TAN(C94)+C94)/TAN(C94)^2</f>
@@ -4100,10 +4100,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B96">
         <f>B95+(転位計算1!D$7-TAN(B95)+B95)/TAN(B95)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C96">
         <f>C95+(転位計算2!D$7-TAN(C95)+C95)/TAN(C95)^2</f>
@@ -4114,10 +4114,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B97">
         <f>B96+(転位計算1!D$7-TAN(B96)+B96)/TAN(B96)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C97">
         <f>C96+(転位計算2!D$7-TAN(C96)+C96)/TAN(C96)^2</f>
@@ -4128,10 +4128,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B98">
         <f>B97+(転位計算1!D$7-TAN(B97)+B97)/TAN(B97)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C98">
         <f>C97+(転位計算2!D$7-TAN(C97)+C97)/TAN(C97)^2</f>
@@ -4142,10 +4142,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B99">
         <f>B98+(転位計算1!D$7-TAN(B98)+B98)/TAN(B98)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C99">
         <f>C98+(転位計算2!D$7-TAN(C98)+C98)/TAN(C98)^2</f>
@@ -4156,10 +4156,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="13">
         <f>B99+(転位計算1!D$7-TAN(B99)+B99)/TAN(B99)^2</f>
-        <v>0.38025908437770639</v>
+        <v>0.45716323176540813</v>
       </c>
       <c r="C100" s="13">
         <f>C99+(転位計算2!D$7-TAN(C99)+C99)/TAN(C99)^2</f>
@@ -4185,7 +4185,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/転位計算シート.xlsx
+++ b/転位計算シート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D756CAC-567D-4190-A397-D2EE3D05F285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1B3BF-1286-4E94-A630-210F4E818377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25845" yWindow="450" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="転位計算1" sheetId="2" r:id="rId1"/>
@@ -1334,18 +1334,18 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1361,7 +1361,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -1388,7 +1388,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1453,10 +1453,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1472,7 +1472,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1499,7 +1499,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="D7" s="5">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>3.4757378357490168E-2</v>
+        <v>1.9352981573900398E-2</v>
       </c>
       <c r="E7" s="6">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>3.4757378357490168E-2</v>
+        <v>1.9352981573900398E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1528,7 +1528,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="D8" s="5">
         <f>D9*180/3.14</f>
-        <v>26.206809464259063</v>
+        <v>21.761949506146642</v>
       </c>
       <c r="E8" s="6">
         <f>D9*180/3.14</f>
-        <v>26.206809464259063</v>
+        <v>21.761949506146642</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1557,7 +1557,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D9" s="5">
         <f>inv逆関数!B100</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="E9" s="6">
         <f>inv逆関数!B100</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1586,7 +1586,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="D10" s="5">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.52089941369409165</v>
+        <v>0.5310644604596515</v>
       </c>
       <c r="E10" s="6">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.52089941369409165</v>
+        <v>0.5310644604596515</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="10"/>
@@ -1616,7 +1616,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="D11" s="5">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>23.041798827388185</v>
+        <v>22.765532230229827</v>
       </c>
       <c r="E11" s="6">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>23.041798827388185</v>
+        <v>22.765532230229827</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1649,7 +1649,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -1658,11 +1658,11 @@
       </c>
       <c r="D12" s="5">
         <f>((D5+E5)/2)*D2</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="E12" s="6">
         <f>((D5+E5)/2)*D2</f>
-        <v>22</v>
+        <v>22.5</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1682,7 +1682,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -1691,15 +1691,15 @@
       </c>
       <c r="D13" s="5">
         <f>D11+D2*0.1</f>
-        <v>23.241798827388184</v>
+        <v>22.815532230229827</v>
       </c>
       <c r="E13" s="6">
         <f>D11+D2*0.1</f>
-        <v>23.241798827388184</v>
+        <v>22.815532230229827</v>
       </c>
       <c r="F13">
         <f>D11+0.1</f>
-        <v>23.141798827388186</v>
+        <v>22.865532230229828</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
@@ -1712,7 +1712,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="D14" s="5">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>4.3417988273881827</v>
+        <v>1.1155322302298258</v>
       </c>
       <c r="E14" s="6">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>4.3417988273881827</v>
+        <v>1.1155322302298258</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="10"/>
@@ -1738,7 +1738,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="D15" s="5">
         <f>(1+D10-E6)*D2*2+D2*D5</f>
-        <v>20.083597654776366</v>
+        <v>6.5310644604596515</v>
       </c>
       <c r="E15" s="6">
         <f>(1+D10-D6)*D2*2+D2*E5</f>
-        <v>33.683597654776364</v>
+        <v>40.981064460459649</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="10"/>
@@ -1764,7 +1764,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -1773,11 +1773,11 @@
       </c>
       <c r="D16" s="7">
         <f>D15-D14*2</f>
-        <v>11.4</v>
+        <v>4.3</v>
       </c>
       <c r="E16" s="8">
         <f>E15-E14*2</f>
-        <v>25</v>
+        <v>38.75</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
@@ -1790,7 +1790,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1801,11 +1801,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -1830,15 +1830,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -1854,7 +1854,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1881,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1908,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -1938,7 +1938,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -2050,7 +2050,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2139,7 +2139,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -2195,7 +2195,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -2273,7 +2273,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2284,11 +2284,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -2313,15 +2313,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="5"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
@@ -2337,7 +2337,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="T2" s="10"/>
       <c r="U2" s="10"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2448,7 +2448,7 @@
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2504,7 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
         <v>4</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
         <v>8</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
@@ -2592,7 +2592,7 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B11" s="20" t="s">
         <v>9</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B12" s="20" t="s">
         <v>10</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
     </row>
-    <row r="13" spans="2:21" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:21" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="21" t="s">
         <v>11</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B14" s="20" t="s">
         <v>26</v>
       </c>
@@ -2704,7 +2704,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2730,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="2:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="22" t="s">
         <v>28</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -2767,11 +2767,11 @@
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="23" t="s">
         <v>30</v>
       </c>
@@ -2796,12 +2796,12 @@
       <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3">
         <f>1+(転位計算1!D$7-TAN(1)+1)/TAN(1)^2</f>
-        <v>0.78452018520233624</v>
+        <v>0.77816921540099071</v>
       </c>
       <c r="C3">
         <f>1+(転位計算2!D$7-TAN(1)+1)/TAN(1)^2</f>
@@ -2812,10 +2812,10 @@
         <v>0.78052284948899564</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4">
         <f>B3+(転位計算1!D$7-TAN(B3)+B3)/TAN(B3)^2</f>
-        <v>0.60492253991614442</v>
+        <v>0.58452644774966145</v>
       </c>
       <c r="C4">
         <f>C3+(転位計算2!D$7-TAN(C3)+C3)/TAN(C3)^2</f>
@@ -2826,10 +2826,10 @@
         <v>0.59217333570403907</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <f>B4+(転位計算1!D$7-TAN(B4)+B4)/TAN(B4)^2</f>
-        <v>0.49675094559373034</v>
+        <v>0.45255063829679659</v>
       </c>
       <c r="C5">
         <f>C4+(転位計算2!D$7-TAN(C4)+C4)/TAN(C4)^2</f>
@@ -2840,10 +2840,10 @@
         <v>0.4695912633997244</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6">
         <f>B5+(転位計算1!D$7-TAN(B5)+B5)/TAN(B5)^2</f>
-        <v>0.46073788318333403</v>
+        <v>0.39205384765856299</v>
       </c>
       <c r="C6">
         <f>C5+(転位計算2!D$7-TAN(C5)+C5)/TAN(C5)^2</f>
@@ -2854,10 +2854,10 @@
         <v>0.41988870761084074</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7">
         <f>B6+(転位計算1!D$7-TAN(B6)+B6)/TAN(B6)^2</f>
-        <v>0.45719518409982796</v>
+        <v>0.38005602472756234</v>
       </c>
       <c r="C7">
         <f>C6+(転位計算2!D$7-TAN(C6)+C6)/TAN(C6)^2</f>
@@ -2868,10 +2868,10 @@
         <v>0.41241989525225758</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8">
         <f>B7+(転位計算1!D$7-TAN(B7)+B7)/TAN(B7)^2</f>
-        <v>0.45716323434285216</v>
+        <v>0.37962565785710101</v>
       </c>
       <c r="C8">
         <f>C7+(転位計算2!D$7-TAN(C7)+C7)/TAN(C7)^2</f>
@@ -2882,10 +2882,10 @@
         <v>0.41226524480582472</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9">
         <f>B8+(転位計算1!D$7-TAN(B8)+B8)/TAN(B8)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916362357</v>
       </c>
       <c r="C9">
         <f>C8+(転位計算2!D$7-TAN(C8)+C8)/TAN(C8)^2</f>
@@ -2896,10 +2896,10 @@
         <v>0.41226517963370019</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>B9+(転位計算1!D$7-TAN(B9)+B9)/TAN(B9)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C10">
         <f>C9+(転位計算2!D$7-TAN(C9)+C9)/TAN(C9)^2</f>
@@ -2910,10 +2910,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <f>B10+(転位計算1!D$7-TAN(B10)+B10)/TAN(B10)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C11">
         <f>C10+(転位計算2!D$7-TAN(C10)+C10)/TAN(C10)^2</f>
@@ -2924,10 +2924,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>B11+(転位計算1!D$7-TAN(B11)+B11)/TAN(B11)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C12">
         <f>C11+(転位計算2!D$7-TAN(C11)+C11)/TAN(C11)^2</f>
@@ -2938,10 +2938,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13">
         <f>B12+(転位計算1!D$7-TAN(B12)+B12)/TAN(B12)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C13">
         <f>C12+(転位計算2!D$7-TAN(C12)+C12)/TAN(C12)^2</f>
@@ -2952,10 +2952,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14">
         <f>B13+(転位計算1!D$7-TAN(B13)+B13)/TAN(B13)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C14">
         <f>C13+(転位計算2!D$7-TAN(C13)+C13)/TAN(C13)^2</f>
@@ -2966,10 +2966,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15">
         <f>B14+(転位計算1!D$7-TAN(B14)+B14)/TAN(B14)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C15">
         <f>C14+(転位計算2!D$7-TAN(C14)+C14)/TAN(C14)^2</f>
@@ -2980,10 +2980,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>B15+(転位計算1!D$7-TAN(B15)+B15)/TAN(B15)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C16">
         <f>C15+(転位計算2!D$7-TAN(C15)+C15)/TAN(C15)^2</f>
@@ -2994,10 +2994,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <f>B16+(転位計算1!D$7-TAN(B16)+B16)/TAN(B16)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C17">
         <f>C16+(転位計算2!D$7-TAN(C16)+C16)/TAN(C16)^2</f>
@@ -3008,10 +3008,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>B17+(転位計算1!D$7-TAN(B17)+B17)/TAN(B17)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C18">
         <f>C17+(転位計算2!D$7-TAN(C17)+C17)/TAN(C17)^2</f>
@@ -3022,10 +3022,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19">
         <f>B18+(転位計算1!D$7-TAN(B18)+B18)/TAN(B18)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C19">
         <f>C18+(転位計算2!D$7-TAN(C18)+C18)/TAN(C18)^2</f>
@@ -3036,10 +3036,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>B19+(転位計算1!D$7-TAN(B19)+B19)/TAN(B19)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C20">
         <f>C19+(転位計算2!D$7-TAN(C19)+C19)/TAN(C19)^2</f>
@@ -3050,10 +3050,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21">
         <f>B20+(転位計算1!D$7-TAN(B20)+B20)/TAN(B20)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C21">
         <f>C20+(転位計算2!D$7-TAN(C20)+C20)/TAN(C20)^2</f>
@@ -3064,10 +3064,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>B21+(転位計算1!D$7-TAN(B21)+B21)/TAN(B21)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C22">
         <f>C21+(転位計算2!D$7-TAN(C21)+C21)/TAN(C21)^2</f>
@@ -3078,10 +3078,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23">
         <f>B22+(転位計算1!D$7-TAN(B22)+B22)/TAN(B22)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C23">
         <f>C22+(転位計算2!D$7-TAN(C22)+C22)/TAN(C22)^2</f>
@@ -3092,10 +3092,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24">
         <f>B23+(転位計算1!D$7-TAN(B23)+B23)/TAN(B23)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C24">
         <f>C23+(転位計算2!D$7-TAN(C23)+C23)/TAN(C23)^2</f>
@@ -3106,10 +3106,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25">
         <f>B24+(転位計算1!D$7-TAN(B24)+B24)/TAN(B24)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C25">
         <f>C24+(転位計算2!D$7-TAN(C24)+C24)/TAN(C24)^2</f>
@@ -3120,10 +3120,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26">
         <f>B25+(転位計算1!D$7-TAN(B25)+B25)/TAN(B25)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C26">
         <f>C25+(転位計算2!D$7-TAN(C25)+C25)/TAN(C25)^2</f>
@@ -3134,10 +3134,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27">
         <f>B26+(転位計算1!D$7-TAN(B26)+B26)/TAN(B26)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C27">
         <f>C26+(転位計算2!D$7-TAN(C26)+C26)/TAN(C26)^2</f>
@@ -3148,10 +3148,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>B27+(転位計算1!D$7-TAN(B27)+B27)/TAN(B27)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C28">
         <f>C27+(転位計算2!D$7-TAN(C27)+C27)/TAN(C27)^2</f>
@@ -3162,10 +3162,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>B28+(転位計算1!D$7-TAN(B28)+B28)/TAN(B28)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C29">
         <f>C28+(転位計算2!D$7-TAN(C28)+C28)/TAN(C28)^2</f>
@@ -3176,10 +3176,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30">
         <f>B29+(転位計算1!D$7-TAN(B29)+B29)/TAN(B29)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C30">
         <f>C29+(転位計算2!D$7-TAN(C29)+C29)/TAN(C29)^2</f>
@@ -3190,10 +3190,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>B30+(転位計算1!D$7-TAN(B30)+B30)/TAN(B30)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C31">
         <f>C30+(転位計算2!D$7-TAN(C30)+C30)/TAN(C30)^2</f>
@@ -3204,10 +3204,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32">
         <f>B31+(転位計算1!D$7-TAN(B31)+B31)/TAN(B31)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C32">
         <f>C31+(転位計算2!D$7-TAN(C31)+C31)/TAN(C31)^2</f>
@@ -3218,10 +3218,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33">
         <f>B32+(転位計算1!D$7-TAN(B32)+B32)/TAN(B32)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C33">
         <f>C32+(転位計算2!D$7-TAN(C32)+C32)/TAN(C32)^2</f>
@@ -3232,10 +3232,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34">
         <f>B33+(転位計算1!D$7-TAN(B33)+B33)/TAN(B33)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C34">
         <f>C33+(転位計算2!D$7-TAN(C33)+C33)/TAN(C33)^2</f>
@@ -3246,10 +3246,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35">
         <f>B34+(転位計算1!D$7-TAN(B34)+B34)/TAN(B34)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C35">
         <f>C34+(転位計算2!D$7-TAN(C34)+C34)/TAN(C34)^2</f>
@@ -3260,10 +3260,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36">
         <f>B35+(転位計算1!D$7-TAN(B35)+B35)/TAN(B35)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C36">
         <f>C35+(転位計算2!D$7-TAN(C35)+C35)/TAN(C35)^2</f>
@@ -3274,10 +3274,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37">
         <f>B36+(転位計算1!D$7-TAN(B36)+B36)/TAN(B36)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C37">
         <f>C36+(転位計算2!D$7-TAN(C36)+C36)/TAN(C36)^2</f>
@@ -3288,10 +3288,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38">
         <f>B37+(転位計算1!D$7-TAN(B37)+B37)/TAN(B37)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C38">
         <f>C37+(転位計算2!D$7-TAN(C37)+C37)/TAN(C37)^2</f>
@@ -3302,10 +3302,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39">
         <f>B38+(転位計算1!D$7-TAN(B38)+B38)/TAN(B38)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C39">
         <f>C38+(転位計算2!D$7-TAN(C38)+C38)/TAN(C38)^2</f>
@@ -3316,10 +3316,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40">
         <f>B39+(転位計算1!D$7-TAN(B39)+B39)/TAN(B39)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C40">
         <f>C39+(転位計算2!D$7-TAN(C39)+C39)/TAN(C39)^2</f>
@@ -3330,10 +3330,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41">
         <f>B40+(転位計算1!D$7-TAN(B40)+B40)/TAN(B40)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C41">
         <f>C40+(転位計算2!D$7-TAN(C40)+C40)/TAN(C40)^2</f>
@@ -3344,10 +3344,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42">
         <f>B41+(転位計算1!D$7-TAN(B41)+B41)/TAN(B41)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C42">
         <f>C41+(転位計算2!D$7-TAN(C41)+C41)/TAN(C41)^2</f>
@@ -3358,10 +3358,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43">
         <f>B42+(転位計算1!D$7-TAN(B42)+B42)/TAN(B42)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C43">
         <f>C42+(転位計算2!D$7-TAN(C42)+C42)/TAN(C42)^2</f>
@@ -3372,10 +3372,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>B43+(転位計算1!D$7-TAN(B43)+B43)/TAN(B43)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C44">
         <f>C43+(転位計算2!D$7-TAN(C43)+C43)/TAN(C43)^2</f>
@@ -3386,10 +3386,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45">
         <f>B44+(転位計算1!D$7-TAN(B44)+B44)/TAN(B44)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C45">
         <f>C44+(転位計算2!D$7-TAN(C44)+C44)/TAN(C44)^2</f>
@@ -3400,10 +3400,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46">
         <f>B45+(転位計算1!D$7-TAN(B45)+B45)/TAN(B45)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C46">
         <f>C45+(転位計算2!D$7-TAN(C45)+C45)/TAN(C45)^2</f>
@@ -3414,10 +3414,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47">
         <f>B46+(転位計算1!D$7-TAN(B46)+B46)/TAN(B46)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C47">
         <f>C46+(転位計算2!D$7-TAN(C46)+C46)/TAN(C46)^2</f>
@@ -3428,10 +3428,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48">
         <f>B47+(転位計算1!D$7-TAN(B47)+B47)/TAN(B47)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C48">
         <f>C47+(転位計算2!D$7-TAN(C47)+C47)/TAN(C47)^2</f>
@@ -3442,10 +3442,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49">
         <f>B48+(転位計算1!D$7-TAN(B48)+B48)/TAN(B48)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C49">
         <f>C48+(転位計算2!D$7-TAN(C48)+C48)/TAN(C48)^2</f>
@@ -3456,10 +3456,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50">
         <f>B49+(転位計算1!D$7-TAN(B49)+B49)/TAN(B49)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C50">
         <f>C49+(転位計算2!D$7-TAN(C49)+C49)/TAN(C49)^2</f>
@@ -3470,10 +3470,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51">
         <f>B50+(転位計算1!D$7-TAN(B50)+B50)/TAN(B50)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C51">
         <f>C50+(転位計算2!D$7-TAN(C50)+C50)/TAN(C50)^2</f>
@@ -3484,10 +3484,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52">
         <f>B51+(転位計算1!D$7-TAN(B51)+B51)/TAN(B51)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C52">
         <f>C51+(転位計算2!D$7-TAN(C51)+C51)/TAN(C51)^2</f>
@@ -3498,10 +3498,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53">
         <f>B52+(転位計算1!D$7-TAN(B52)+B52)/TAN(B52)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C53">
         <f>C52+(転位計算2!D$7-TAN(C52)+C52)/TAN(C52)^2</f>
@@ -3512,10 +3512,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54">
         <f>B53+(転位計算1!D$7-TAN(B53)+B53)/TAN(B53)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C54">
         <f>C53+(転位計算2!D$7-TAN(C53)+C53)/TAN(C53)^2</f>
@@ -3526,10 +3526,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>B54+(転位計算1!D$7-TAN(B54)+B54)/TAN(B54)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C55">
         <f>C54+(転位計算2!D$7-TAN(C54)+C54)/TAN(C54)^2</f>
@@ -3540,10 +3540,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56">
         <f>B55+(転位計算1!D$7-TAN(B55)+B55)/TAN(B55)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C56">
         <f>C55+(転位計算2!D$7-TAN(C55)+C55)/TAN(C55)^2</f>
@@ -3554,10 +3554,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57">
         <f>B56+(転位計算1!D$7-TAN(B56)+B56)/TAN(B56)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C57">
         <f>C56+(転位計算2!D$7-TAN(C56)+C56)/TAN(C56)^2</f>
@@ -3568,10 +3568,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58">
         <f>B57+(転位計算1!D$7-TAN(B57)+B57)/TAN(B57)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C58">
         <f>C57+(転位計算2!D$7-TAN(C57)+C57)/TAN(C57)^2</f>
@@ -3582,10 +3582,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59">
         <f>B58+(転位計算1!D$7-TAN(B58)+B58)/TAN(B58)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C59">
         <f>C58+(転位計算2!D$7-TAN(C58)+C58)/TAN(C58)^2</f>
@@ -3596,10 +3596,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60">
         <f>B59+(転位計算1!D$7-TAN(B59)+B59)/TAN(B59)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C60">
         <f>C59+(転位計算2!D$7-TAN(C59)+C59)/TAN(C59)^2</f>
@@ -3610,10 +3610,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61">
         <f>B60+(転位計算1!D$7-TAN(B60)+B60)/TAN(B60)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C61">
         <f>C60+(転位計算2!D$7-TAN(C60)+C60)/TAN(C60)^2</f>
@@ -3624,10 +3624,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62">
         <f>B61+(転位計算1!D$7-TAN(B61)+B61)/TAN(B61)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C62">
         <f>C61+(転位計算2!D$7-TAN(C61)+C61)/TAN(C61)^2</f>
@@ -3638,10 +3638,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63">
         <f>B62+(転位計算1!D$7-TAN(B62)+B62)/TAN(B62)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C63">
         <f>C62+(転位計算2!D$7-TAN(C62)+C62)/TAN(C62)^2</f>
@@ -3652,10 +3652,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64">
         <f>B63+(転位計算1!D$7-TAN(B63)+B63)/TAN(B63)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C64">
         <f>C63+(転位計算2!D$7-TAN(C63)+C63)/TAN(C63)^2</f>
@@ -3666,10 +3666,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65">
         <f>B64+(転位計算1!D$7-TAN(B64)+B64)/TAN(B64)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C65">
         <f>C64+(転位計算2!D$7-TAN(C64)+C64)/TAN(C64)^2</f>
@@ -3680,10 +3680,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66">
         <f>B65+(転位計算1!D$7-TAN(B65)+B65)/TAN(B65)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C66">
         <f>C65+(転位計算2!D$7-TAN(C65)+C65)/TAN(C65)^2</f>
@@ -3694,10 +3694,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67">
         <f>B66+(転位計算1!D$7-TAN(B66)+B66)/TAN(B66)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C67">
         <f>C66+(転位計算2!D$7-TAN(C66)+C66)/TAN(C66)^2</f>
@@ -3708,10 +3708,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B68">
         <f>B67+(転位計算1!D$7-TAN(B67)+B67)/TAN(B67)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C68">
         <f>C67+(転位計算2!D$7-TAN(C67)+C67)/TAN(C67)^2</f>
@@ -3722,10 +3722,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69">
         <f>B68+(転位計算1!D$7-TAN(B68)+B68)/TAN(B68)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C69">
         <f>C68+(転位計算2!D$7-TAN(C68)+C68)/TAN(C68)^2</f>
@@ -3736,10 +3736,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70">
         <f>B69+(転位計算1!D$7-TAN(B69)+B69)/TAN(B69)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C70">
         <f>C69+(転位計算2!D$7-TAN(C69)+C69)/TAN(C69)^2</f>
@@ -3750,10 +3750,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71">
         <f>B70+(転位計算1!D$7-TAN(B70)+B70)/TAN(B70)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C71">
         <f>C70+(転位計算2!D$7-TAN(C70)+C70)/TAN(C70)^2</f>
@@ -3764,10 +3764,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72">
         <f>B71+(転位計算1!D$7-TAN(B71)+B71)/TAN(B71)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C72">
         <f>C71+(転位計算2!D$7-TAN(C71)+C71)/TAN(C71)^2</f>
@@ -3778,10 +3778,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73">
         <f>B72+(転位計算1!D$7-TAN(B72)+B72)/TAN(B72)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C73">
         <f>C72+(転位計算2!D$7-TAN(C72)+C72)/TAN(C72)^2</f>
@@ -3792,10 +3792,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74">
         <f>B73+(転位計算1!D$7-TAN(B73)+B73)/TAN(B73)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C74">
         <f>C73+(転位計算2!D$7-TAN(C73)+C73)/TAN(C73)^2</f>
@@ -3806,10 +3806,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B75">
         <f>B74+(転位計算1!D$7-TAN(B74)+B74)/TAN(B74)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C75">
         <f>C74+(転位計算2!D$7-TAN(C74)+C74)/TAN(C74)^2</f>
@@ -3820,10 +3820,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B76">
         <f>B75+(転位計算1!D$7-TAN(B75)+B75)/TAN(B75)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C76">
         <f>C75+(転位計算2!D$7-TAN(C75)+C75)/TAN(C75)^2</f>
@@ -3834,10 +3834,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B77">
         <f>B76+(転位計算1!D$7-TAN(B76)+B76)/TAN(B76)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C77">
         <f>C76+(転位計算2!D$7-TAN(C76)+C76)/TAN(C76)^2</f>
@@ -3848,10 +3848,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B78">
         <f>B77+(転位計算1!D$7-TAN(B77)+B77)/TAN(B77)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C78">
         <f>C77+(転位計算2!D$7-TAN(C77)+C77)/TAN(C77)^2</f>
@@ -3862,10 +3862,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B79">
         <f>B78+(転位計算1!D$7-TAN(B78)+B78)/TAN(B78)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C79">
         <f>C78+(転位計算2!D$7-TAN(C78)+C78)/TAN(C78)^2</f>
@@ -3876,10 +3876,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B80">
         <f>B79+(転位計算1!D$7-TAN(B79)+B79)/TAN(B79)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C80">
         <f>C79+(転位計算2!D$7-TAN(C79)+C79)/TAN(C79)^2</f>
@@ -3890,10 +3890,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B81">
         <f>B80+(転位計算1!D$7-TAN(B80)+B80)/TAN(B80)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C81">
         <f>C80+(転位計算2!D$7-TAN(C80)+C80)/TAN(C80)^2</f>
@@ -3904,10 +3904,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B82">
         <f>B81+(転位計算1!D$7-TAN(B81)+B81)/TAN(B81)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C82">
         <f>C81+(転位計算2!D$7-TAN(C81)+C81)/TAN(C81)^2</f>
@@ -3918,10 +3918,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B83">
         <f>B82+(転位計算1!D$7-TAN(B82)+B82)/TAN(B82)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C83">
         <f>C82+(転位計算2!D$7-TAN(C82)+C82)/TAN(C82)^2</f>
@@ -3932,10 +3932,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B84">
         <f>B83+(転位計算1!D$7-TAN(B83)+B83)/TAN(B83)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C84">
         <f>C83+(転位計算2!D$7-TAN(C83)+C83)/TAN(C83)^2</f>
@@ -3946,10 +3946,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B85">
         <f>B84+(転位計算1!D$7-TAN(B84)+B84)/TAN(B84)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C85">
         <f>C84+(転位計算2!D$7-TAN(C84)+C84)/TAN(C84)^2</f>
@@ -3960,10 +3960,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B86">
         <f>B85+(転位計算1!D$7-TAN(B85)+B85)/TAN(B85)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C86">
         <f>C85+(転位計算2!D$7-TAN(C85)+C85)/TAN(C85)^2</f>
@@ -3974,10 +3974,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B87">
         <f>B86+(転位計算1!D$7-TAN(B86)+B86)/TAN(B86)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C87">
         <f>C86+(転位計算2!D$7-TAN(C86)+C86)/TAN(C86)^2</f>
@@ -3988,10 +3988,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B88">
         <f>B87+(転位計算1!D$7-TAN(B87)+B87)/TAN(B87)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C88">
         <f>C87+(転位計算2!D$7-TAN(C87)+C87)/TAN(C87)^2</f>
@@ -4002,10 +4002,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B89">
         <f>B88+(転位計算1!D$7-TAN(B88)+B88)/TAN(B88)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C89">
         <f>C88+(転位計算2!D$7-TAN(C88)+C88)/TAN(C88)^2</f>
@@ -4016,10 +4016,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B90">
         <f>B89+(転位計算1!D$7-TAN(B89)+B89)/TAN(B89)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C90">
         <f>C89+(転位計算2!D$7-TAN(C89)+C89)/TAN(C89)^2</f>
@@ -4030,10 +4030,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B91">
         <f>B90+(転位計算1!D$7-TAN(B90)+B90)/TAN(B90)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C91">
         <f>C90+(転位計算2!D$7-TAN(C90)+C90)/TAN(C90)^2</f>
@@ -4044,10 +4044,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B92">
         <f>B91+(転位計算1!D$7-TAN(B91)+B91)/TAN(B91)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C92">
         <f>C91+(転位計算2!D$7-TAN(C91)+C91)/TAN(C91)^2</f>
@@ -4058,10 +4058,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B93">
         <f>B92+(転位計算1!D$7-TAN(B92)+B92)/TAN(B92)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C93">
         <f>C92+(転位計算2!D$7-TAN(C92)+C92)/TAN(C92)^2</f>
@@ -4072,10 +4072,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B94">
         <f>B93+(転位計算1!D$7-TAN(B93)+B93)/TAN(B93)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C94">
         <f>C93+(転位計算2!D$7-TAN(C93)+C93)/TAN(C93)^2</f>
@@ -4086,10 +4086,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B95">
         <f>B94+(転位計算1!D$7-TAN(B94)+B94)/TAN(B94)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C95">
         <f>C94+(転位計算2!D$7-TAN(C94)+C94)/TAN(C94)^2</f>
@@ -4100,10 +4100,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B96">
         <f>B95+(転位計算1!D$7-TAN(B95)+B95)/TAN(B95)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C96">
         <f>C95+(転位計算2!D$7-TAN(C95)+C95)/TAN(C95)^2</f>
@@ -4114,10 +4114,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B97">
         <f>B96+(転位計算1!D$7-TAN(B96)+B96)/TAN(B96)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C97">
         <f>C96+(転位計算2!D$7-TAN(C96)+C96)/TAN(C96)^2</f>
@@ -4128,10 +4128,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B98">
         <f>B97+(転位計算1!D$7-TAN(B97)+B97)/TAN(B97)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C98">
         <f>C97+(転位計算2!D$7-TAN(C97)+C97)/TAN(C97)^2</f>
@@ -4142,10 +4142,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B99">
         <f>B98+(転位計算1!D$7-TAN(B98)+B98)/TAN(B98)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C99">
         <f>C98+(転位計算2!D$7-TAN(C98)+C98)/TAN(C98)^2</f>
@@ -4156,10 +4156,10 @@
         <v>0.41226517963368858</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B100" s="13">
         <f>B99+(転位計算1!D$7-TAN(B99)+B99)/TAN(B99)^2</f>
-        <v>0.45716323176540813</v>
+        <v>0.37962511916278036</v>
       </c>
       <c r="C100" s="13">
         <f>C99+(転位計算2!D$7-TAN(C99)+C99)/TAN(C99)^2</f>
@@ -4185,7 +4185,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/転位計算シート.xlsx
+++ b/転位計算シート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1B3BF-1286-4E94-A630-210F4E818377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E3F8B-F817-4E9B-9904-5C29D02821EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25845" yWindow="450" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31530" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="転位計算1" sheetId="2" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1369,7 +1369,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="D7" s="5">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>1.9352981573900398E-2</v>
+        <v>2.3524804142097802E-2</v>
       </c>
       <c r="E7" s="6">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>1.9352981573900398E-2</v>
+        <v>2.3524804142097802E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="D8" s="5">
         <f>D9*180/3.14</f>
-        <v>21.761949506146642</v>
+        <v>23.161918967490717</v>
       </c>
       <c r="E8" s="6">
         <f>D9*180/3.14</f>
-        <v>21.761949506146642</v>
+        <v>23.161918967490717</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D9" s="5">
         <f>inv逆関数!B100</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="E9" s="6">
         <f>inv逆関数!B100</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="D10" s="5">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.5310644604596515</v>
+        <v>0.41942432285223052</v>
       </c>
       <c r="E10" s="6">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.5310644604596515</v>
+        <v>0.41942432285223052</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="10"/>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="D11" s="5">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>22.765532230229827</v>
+        <v>38.838848645704459</v>
       </c>
       <c r="E11" s="6">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>22.765532230229827</v>
+        <v>38.838848645704459</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1658,11 +1658,11 @@
       </c>
       <c r="D12" s="5">
         <f>((D5+E5)/2)*D2</f>
-        <v>22.5</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6">
         <f>((D5+E5)/2)*D2</f>
-        <v>22.5</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>31</v>
@@ -1691,15 +1691,15 @@
       </c>
       <c r="D13" s="5">
         <f>D11+D2*0.1</f>
-        <v>22.815532230229827</v>
+        <v>39.038848645704462</v>
       </c>
       <c r="E13" s="6">
         <f>D11+D2*0.1</f>
-        <v>22.815532230229827</v>
+        <v>39.038848645704462</v>
       </c>
       <c r="F13">
         <f>D11+0.1</f>
-        <v>22.865532230229828</v>
+        <v>38.938848645704461</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="D14" s="5">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>1.1155322302298258</v>
+        <v>4.4388486457044607</v>
       </c>
       <c r="E14" s="6">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>1.1155322302298258</v>
+        <v>4.4388486457044607</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="10"/>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="D15" s="5">
         <f>(1+D10-E6)*D2*2+D2*D5</f>
-        <v>6.5310644604596515</v>
+        <v>25.677697291408922</v>
       </c>
       <c r="E15" s="6">
         <f>(1+D10-D6)*D2*2+D2*E5</f>
-        <v>40.981064460459649</v>
+        <v>59.877697291408921</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="10"/>
@@ -1773,11 +1773,11 @@
       </c>
       <c r="D16" s="7">
         <f>D15-D14*2</f>
-        <v>4.3</v>
+        <v>16.8</v>
       </c>
       <c r="E16" s="8">
         <f>E15-E14*2</f>
-        <v>38.75</v>
+        <v>51</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="10"/>
@@ -1817,7 +1817,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2801,7 +2801,7 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3">
         <f>1+(転位計算1!D$7-TAN(1)+1)/TAN(1)^2</f>
-        <v>0.77816921540099071</v>
+        <v>0.77988918662215667</v>
       </c>
       <c r="C3">
         <f>1+(転位計算2!D$7-TAN(1)+1)/TAN(1)^2</f>
@@ -2815,7 +2815,7 @@
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4">
         <f>B3+(転位計算1!D$7-TAN(B3)+B3)/TAN(B3)^2</f>
-        <v>0.58452644774966145</v>
+        <v>0.59012490158183839</v>
       </c>
       <c r="C4">
         <f>C3+(転位計算2!D$7-TAN(C3)+C3)/TAN(C3)^2</f>
@@ -2829,7 +2829,7 @@
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <f>B4+(転位計算1!D$7-TAN(B4)+B4)/TAN(B4)^2</f>
-        <v>0.45255063829679659</v>
+        <v>0.46508372692381095</v>
       </c>
       <c r="C5">
         <f>C4+(転位計算2!D$7-TAN(C4)+C4)/TAN(C4)^2</f>
@@ -2843,7 +2843,7 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6">
         <f>B5+(転位計算1!D$7-TAN(B5)+B5)/TAN(B5)^2</f>
-        <v>0.39205384765856299</v>
+        <v>0.41270912395967857</v>
       </c>
       <c r="C6">
         <f>C5+(転位計算2!D$7-TAN(C5)+C5)/TAN(C5)^2</f>
@@ -2857,7 +2857,7 @@
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7">
         <f>B6+(転位計算1!D$7-TAN(B6)+B6)/TAN(B6)^2</f>
-        <v>0.38005602472756234</v>
+        <v>0.40424892594501871</v>
       </c>
       <c r="C7">
         <f>C6+(転位計算2!D$7-TAN(C6)+C6)/TAN(C6)^2</f>
@@ -2871,7 +2871,7 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8">
         <f>B7+(転位計算1!D$7-TAN(B7)+B7)/TAN(B7)^2</f>
-        <v>0.37962565785710101</v>
+        <v>0.40404692159365474</v>
       </c>
       <c r="C8">
         <f>C7+(転位計算2!D$7-TAN(C7)+C7)/TAN(C7)^2</f>
@@ -2885,7 +2885,7 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9">
         <f>B8+(転位計算1!D$7-TAN(B8)+B8)/TAN(B8)^2</f>
-        <v>0.37962511916362357</v>
+        <v>0.40404680865515141</v>
       </c>
       <c r="C9">
         <f>C8+(転位計算2!D$7-TAN(C8)+C8)/TAN(C8)^2</f>
@@ -2899,7 +2899,7 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>B9+(転位計算1!D$7-TAN(B9)+B9)/TAN(B9)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C10">
         <f>C9+(転位計算2!D$7-TAN(C9)+C9)/TAN(C9)^2</f>
@@ -2913,7 +2913,7 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <f>B10+(転位計算1!D$7-TAN(B10)+B10)/TAN(B10)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C11">
         <f>C10+(転位計算2!D$7-TAN(C10)+C10)/TAN(C10)^2</f>
@@ -2927,7 +2927,7 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>B11+(転位計算1!D$7-TAN(B11)+B11)/TAN(B11)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C12">
         <f>C11+(転位計算2!D$7-TAN(C11)+C11)/TAN(C11)^2</f>
@@ -2941,7 +2941,7 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13">
         <f>B12+(転位計算1!D$7-TAN(B12)+B12)/TAN(B12)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C13">
         <f>C12+(転位計算2!D$7-TAN(C12)+C12)/TAN(C12)^2</f>
@@ -2955,7 +2955,7 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14">
         <f>B13+(転位計算1!D$7-TAN(B13)+B13)/TAN(B13)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C14">
         <f>C13+(転位計算2!D$7-TAN(C13)+C13)/TAN(C13)^2</f>
@@ -2969,7 +2969,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15">
         <f>B14+(転位計算1!D$7-TAN(B14)+B14)/TAN(B14)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C15">
         <f>C14+(転位計算2!D$7-TAN(C14)+C14)/TAN(C14)^2</f>
@@ -2983,7 +2983,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>B15+(転位計算1!D$7-TAN(B15)+B15)/TAN(B15)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C16">
         <f>C15+(転位計算2!D$7-TAN(C15)+C15)/TAN(C15)^2</f>
@@ -2997,7 +2997,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <f>B16+(転位計算1!D$7-TAN(B16)+B16)/TAN(B16)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C17">
         <f>C16+(転位計算2!D$7-TAN(C16)+C16)/TAN(C16)^2</f>
@@ -3011,7 +3011,7 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>B17+(転位計算1!D$7-TAN(B17)+B17)/TAN(B17)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C18">
         <f>C17+(転位計算2!D$7-TAN(C17)+C17)/TAN(C17)^2</f>
@@ -3025,7 +3025,7 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19">
         <f>B18+(転位計算1!D$7-TAN(B18)+B18)/TAN(B18)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C19">
         <f>C18+(転位計算2!D$7-TAN(C18)+C18)/TAN(C18)^2</f>
@@ -3039,7 +3039,7 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>B19+(転位計算1!D$7-TAN(B19)+B19)/TAN(B19)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C20">
         <f>C19+(転位計算2!D$7-TAN(C19)+C19)/TAN(C19)^2</f>
@@ -3053,7 +3053,7 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21">
         <f>B20+(転位計算1!D$7-TAN(B20)+B20)/TAN(B20)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C21">
         <f>C20+(転位計算2!D$7-TAN(C20)+C20)/TAN(C20)^2</f>
@@ -3067,7 +3067,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>B21+(転位計算1!D$7-TAN(B21)+B21)/TAN(B21)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C22">
         <f>C21+(転位計算2!D$7-TAN(C21)+C21)/TAN(C21)^2</f>
@@ -3081,7 +3081,7 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23">
         <f>B22+(転位計算1!D$7-TAN(B22)+B22)/TAN(B22)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C23">
         <f>C22+(転位計算2!D$7-TAN(C22)+C22)/TAN(C22)^2</f>
@@ -3095,7 +3095,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24">
         <f>B23+(転位計算1!D$7-TAN(B23)+B23)/TAN(B23)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C24">
         <f>C23+(転位計算2!D$7-TAN(C23)+C23)/TAN(C23)^2</f>
@@ -3109,7 +3109,7 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25">
         <f>B24+(転位計算1!D$7-TAN(B24)+B24)/TAN(B24)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C25">
         <f>C24+(転位計算2!D$7-TAN(C24)+C24)/TAN(C24)^2</f>
@@ -3123,7 +3123,7 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26">
         <f>B25+(転位計算1!D$7-TAN(B25)+B25)/TAN(B25)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C26">
         <f>C25+(転位計算2!D$7-TAN(C25)+C25)/TAN(C25)^2</f>
@@ -3137,7 +3137,7 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27">
         <f>B26+(転位計算1!D$7-TAN(B26)+B26)/TAN(B26)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C27">
         <f>C26+(転位計算2!D$7-TAN(C26)+C26)/TAN(C26)^2</f>
@@ -3151,7 +3151,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>B27+(転位計算1!D$7-TAN(B27)+B27)/TAN(B27)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C28">
         <f>C27+(転位計算2!D$7-TAN(C27)+C27)/TAN(C27)^2</f>
@@ -3165,7 +3165,7 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>B28+(転位計算1!D$7-TAN(B28)+B28)/TAN(B28)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C29">
         <f>C28+(転位計算2!D$7-TAN(C28)+C28)/TAN(C28)^2</f>
@@ -3179,7 +3179,7 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30">
         <f>B29+(転位計算1!D$7-TAN(B29)+B29)/TAN(B29)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C30">
         <f>C29+(転位計算2!D$7-TAN(C29)+C29)/TAN(C29)^2</f>
@@ -3193,7 +3193,7 @@
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>B30+(転位計算1!D$7-TAN(B30)+B30)/TAN(B30)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C31">
         <f>C30+(転位計算2!D$7-TAN(C30)+C30)/TAN(C30)^2</f>
@@ -3207,7 +3207,7 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32">
         <f>B31+(転位計算1!D$7-TAN(B31)+B31)/TAN(B31)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C32">
         <f>C31+(転位計算2!D$7-TAN(C31)+C31)/TAN(C31)^2</f>
@@ -3221,7 +3221,7 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33">
         <f>B32+(転位計算1!D$7-TAN(B32)+B32)/TAN(B32)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C33">
         <f>C32+(転位計算2!D$7-TAN(C32)+C32)/TAN(C32)^2</f>
@@ -3235,7 +3235,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34">
         <f>B33+(転位計算1!D$7-TAN(B33)+B33)/TAN(B33)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C34">
         <f>C33+(転位計算2!D$7-TAN(C33)+C33)/TAN(C33)^2</f>
@@ -3249,7 +3249,7 @@
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35">
         <f>B34+(転位計算1!D$7-TAN(B34)+B34)/TAN(B34)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C35">
         <f>C34+(転位計算2!D$7-TAN(C34)+C34)/TAN(C34)^2</f>
@@ -3263,7 +3263,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36">
         <f>B35+(転位計算1!D$7-TAN(B35)+B35)/TAN(B35)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C36">
         <f>C35+(転位計算2!D$7-TAN(C35)+C35)/TAN(C35)^2</f>
@@ -3277,7 +3277,7 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37">
         <f>B36+(転位計算1!D$7-TAN(B36)+B36)/TAN(B36)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C37">
         <f>C36+(転位計算2!D$7-TAN(C36)+C36)/TAN(C36)^2</f>
@@ -3291,7 +3291,7 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38">
         <f>B37+(転位計算1!D$7-TAN(B37)+B37)/TAN(B37)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C38">
         <f>C37+(転位計算2!D$7-TAN(C37)+C37)/TAN(C37)^2</f>
@@ -3305,7 +3305,7 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39">
         <f>B38+(転位計算1!D$7-TAN(B38)+B38)/TAN(B38)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C39">
         <f>C38+(転位計算2!D$7-TAN(C38)+C38)/TAN(C38)^2</f>
@@ -3319,7 +3319,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40">
         <f>B39+(転位計算1!D$7-TAN(B39)+B39)/TAN(B39)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C40">
         <f>C39+(転位計算2!D$7-TAN(C39)+C39)/TAN(C39)^2</f>
@@ -3333,7 +3333,7 @@
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41">
         <f>B40+(転位計算1!D$7-TAN(B40)+B40)/TAN(B40)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C41">
         <f>C40+(転位計算2!D$7-TAN(C40)+C40)/TAN(C40)^2</f>
@@ -3347,7 +3347,7 @@
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42">
         <f>B41+(転位計算1!D$7-TAN(B41)+B41)/TAN(B41)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C42">
         <f>C41+(転位計算2!D$7-TAN(C41)+C41)/TAN(C41)^2</f>
@@ -3361,7 +3361,7 @@
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43">
         <f>B42+(転位計算1!D$7-TAN(B42)+B42)/TAN(B42)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C43">
         <f>C42+(転位計算2!D$7-TAN(C42)+C42)/TAN(C42)^2</f>
@@ -3375,7 +3375,7 @@
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>B43+(転位計算1!D$7-TAN(B43)+B43)/TAN(B43)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C44">
         <f>C43+(転位計算2!D$7-TAN(C43)+C43)/TAN(C43)^2</f>
@@ -3389,7 +3389,7 @@
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45">
         <f>B44+(転位計算1!D$7-TAN(B44)+B44)/TAN(B44)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C45">
         <f>C44+(転位計算2!D$7-TAN(C44)+C44)/TAN(C44)^2</f>
@@ -3403,7 +3403,7 @@
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46">
         <f>B45+(転位計算1!D$7-TAN(B45)+B45)/TAN(B45)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C46">
         <f>C45+(転位計算2!D$7-TAN(C45)+C45)/TAN(C45)^2</f>
@@ -3417,7 +3417,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47">
         <f>B46+(転位計算1!D$7-TAN(B46)+B46)/TAN(B46)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C47">
         <f>C46+(転位計算2!D$7-TAN(C46)+C46)/TAN(C46)^2</f>
@@ -3431,7 +3431,7 @@
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48">
         <f>B47+(転位計算1!D$7-TAN(B47)+B47)/TAN(B47)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C48">
         <f>C47+(転位計算2!D$7-TAN(C47)+C47)/TAN(C47)^2</f>
@@ -3445,7 +3445,7 @@
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49">
         <f>B48+(転位計算1!D$7-TAN(B48)+B48)/TAN(B48)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C49">
         <f>C48+(転位計算2!D$7-TAN(C48)+C48)/TAN(C48)^2</f>
@@ -3459,7 +3459,7 @@
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50">
         <f>B49+(転位計算1!D$7-TAN(B49)+B49)/TAN(B49)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C50">
         <f>C49+(転位計算2!D$7-TAN(C49)+C49)/TAN(C49)^2</f>
@@ -3473,7 +3473,7 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51">
         <f>B50+(転位計算1!D$7-TAN(B50)+B50)/TAN(B50)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C51">
         <f>C50+(転位計算2!D$7-TAN(C50)+C50)/TAN(C50)^2</f>
@@ -3487,7 +3487,7 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52">
         <f>B51+(転位計算1!D$7-TAN(B51)+B51)/TAN(B51)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C52">
         <f>C51+(転位計算2!D$7-TAN(C51)+C51)/TAN(C51)^2</f>
@@ -3501,7 +3501,7 @@
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53">
         <f>B52+(転位計算1!D$7-TAN(B52)+B52)/TAN(B52)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C53">
         <f>C52+(転位計算2!D$7-TAN(C52)+C52)/TAN(C52)^2</f>
@@ -3515,7 +3515,7 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54">
         <f>B53+(転位計算1!D$7-TAN(B53)+B53)/TAN(B53)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C54">
         <f>C53+(転位計算2!D$7-TAN(C53)+C53)/TAN(C53)^2</f>
@@ -3529,7 +3529,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>B54+(転位計算1!D$7-TAN(B54)+B54)/TAN(B54)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C55">
         <f>C54+(転位計算2!D$7-TAN(C54)+C54)/TAN(C54)^2</f>
@@ -3543,7 +3543,7 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56">
         <f>B55+(転位計算1!D$7-TAN(B55)+B55)/TAN(B55)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C56">
         <f>C55+(転位計算2!D$7-TAN(C55)+C55)/TAN(C55)^2</f>
@@ -3557,7 +3557,7 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57">
         <f>B56+(転位計算1!D$7-TAN(B56)+B56)/TAN(B56)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C57">
         <f>C56+(転位計算2!D$7-TAN(C56)+C56)/TAN(C56)^2</f>
@@ -3571,7 +3571,7 @@
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58">
         <f>B57+(転位計算1!D$7-TAN(B57)+B57)/TAN(B57)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C58">
         <f>C57+(転位計算2!D$7-TAN(C57)+C57)/TAN(C57)^2</f>
@@ -3585,7 +3585,7 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59">
         <f>B58+(転位計算1!D$7-TAN(B58)+B58)/TAN(B58)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C59">
         <f>C58+(転位計算2!D$7-TAN(C58)+C58)/TAN(C58)^2</f>
@@ -3599,7 +3599,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60">
         <f>B59+(転位計算1!D$7-TAN(B59)+B59)/TAN(B59)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C60">
         <f>C59+(転位計算2!D$7-TAN(C59)+C59)/TAN(C59)^2</f>
@@ -3613,7 +3613,7 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61">
         <f>B60+(転位計算1!D$7-TAN(B60)+B60)/TAN(B60)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C61">
         <f>C60+(転位計算2!D$7-TAN(C60)+C60)/TAN(C60)^2</f>
@@ -3627,7 +3627,7 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62">
         <f>B61+(転位計算1!D$7-TAN(B61)+B61)/TAN(B61)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C62">
         <f>C61+(転位計算2!D$7-TAN(C61)+C61)/TAN(C61)^2</f>
@@ -3641,7 +3641,7 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63">
         <f>B62+(転位計算1!D$7-TAN(B62)+B62)/TAN(B62)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C63">
         <f>C62+(転位計算2!D$7-TAN(C62)+C62)/TAN(C62)^2</f>
@@ -3655,7 +3655,7 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64">
         <f>B63+(転位計算1!D$7-TAN(B63)+B63)/TAN(B63)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C64">
         <f>C63+(転位計算2!D$7-TAN(C63)+C63)/TAN(C63)^2</f>
@@ -3669,7 +3669,7 @@
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65">
         <f>B64+(転位計算1!D$7-TAN(B64)+B64)/TAN(B64)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C65">
         <f>C64+(転位計算2!D$7-TAN(C64)+C64)/TAN(C64)^2</f>
@@ -3683,7 +3683,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66">
         <f>B65+(転位計算1!D$7-TAN(B65)+B65)/TAN(B65)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C66">
         <f>C65+(転位計算2!D$7-TAN(C65)+C65)/TAN(C65)^2</f>
@@ -3697,7 +3697,7 @@
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67">
         <f>B66+(転位計算1!D$7-TAN(B66)+B66)/TAN(B66)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C67">
         <f>C66+(転位計算2!D$7-TAN(C66)+C66)/TAN(C66)^2</f>
@@ -3711,7 +3711,7 @@
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B68">
         <f>B67+(転位計算1!D$7-TAN(B67)+B67)/TAN(B67)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C68">
         <f>C67+(転位計算2!D$7-TAN(C67)+C67)/TAN(C67)^2</f>
@@ -3725,7 +3725,7 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69">
         <f>B68+(転位計算1!D$7-TAN(B68)+B68)/TAN(B68)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C69">
         <f>C68+(転位計算2!D$7-TAN(C68)+C68)/TAN(C68)^2</f>
@@ -3739,7 +3739,7 @@
     <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70">
         <f>B69+(転位計算1!D$7-TAN(B69)+B69)/TAN(B69)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C70">
         <f>C69+(転位計算2!D$7-TAN(C69)+C69)/TAN(C69)^2</f>
@@ -3753,7 +3753,7 @@
     <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71">
         <f>B70+(転位計算1!D$7-TAN(B70)+B70)/TAN(B70)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C71">
         <f>C70+(転位計算2!D$7-TAN(C70)+C70)/TAN(C70)^2</f>
@@ -3767,7 +3767,7 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72">
         <f>B71+(転位計算1!D$7-TAN(B71)+B71)/TAN(B71)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C72">
         <f>C71+(転位計算2!D$7-TAN(C71)+C71)/TAN(C71)^2</f>
@@ -3781,7 +3781,7 @@
     <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73">
         <f>B72+(転位計算1!D$7-TAN(B72)+B72)/TAN(B72)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C73">
         <f>C72+(転位計算2!D$7-TAN(C72)+C72)/TAN(C72)^2</f>
@@ -3795,7 +3795,7 @@
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74">
         <f>B73+(転位計算1!D$7-TAN(B73)+B73)/TAN(B73)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C74">
         <f>C73+(転位計算2!D$7-TAN(C73)+C73)/TAN(C73)^2</f>
@@ -3809,7 +3809,7 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B75">
         <f>B74+(転位計算1!D$7-TAN(B74)+B74)/TAN(B74)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C75">
         <f>C74+(転位計算2!D$7-TAN(C74)+C74)/TAN(C74)^2</f>
@@ -3823,7 +3823,7 @@
     <row r="76" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B76">
         <f>B75+(転位計算1!D$7-TAN(B75)+B75)/TAN(B75)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C76">
         <f>C75+(転位計算2!D$7-TAN(C75)+C75)/TAN(C75)^2</f>
@@ -3837,7 +3837,7 @@
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B77">
         <f>B76+(転位計算1!D$7-TAN(B76)+B76)/TAN(B76)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C77">
         <f>C76+(転位計算2!D$7-TAN(C76)+C76)/TAN(C76)^2</f>
@@ -3851,7 +3851,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B78">
         <f>B77+(転位計算1!D$7-TAN(B77)+B77)/TAN(B77)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C78">
         <f>C77+(転位計算2!D$7-TAN(C77)+C77)/TAN(C77)^2</f>
@@ -3865,7 +3865,7 @@
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B79">
         <f>B78+(転位計算1!D$7-TAN(B78)+B78)/TAN(B78)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C79">
         <f>C78+(転位計算2!D$7-TAN(C78)+C78)/TAN(C78)^2</f>
@@ -3879,7 +3879,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B80">
         <f>B79+(転位計算1!D$7-TAN(B79)+B79)/TAN(B79)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C80">
         <f>C79+(転位計算2!D$7-TAN(C79)+C79)/TAN(C79)^2</f>
@@ -3893,7 +3893,7 @@
     <row r="81" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B81">
         <f>B80+(転位計算1!D$7-TAN(B80)+B80)/TAN(B80)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C81">
         <f>C80+(転位計算2!D$7-TAN(C80)+C80)/TAN(C80)^2</f>
@@ -3907,7 +3907,7 @@
     <row r="82" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B82">
         <f>B81+(転位計算1!D$7-TAN(B81)+B81)/TAN(B81)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C82">
         <f>C81+(転位計算2!D$7-TAN(C81)+C81)/TAN(C81)^2</f>
@@ -3921,7 +3921,7 @@
     <row r="83" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B83">
         <f>B82+(転位計算1!D$7-TAN(B82)+B82)/TAN(B82)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C83">
         <f>C82+(転位計算2!D$7-TAN(C82)+C82)/TAN(C82)^2</f>
@@ -3935,7 +3935,7 @@
     <row r="84" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B84">
         <f>B83+(転位計算1!D$7-TAN(B83)+B83)/TAN(B83)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C84">
         <f>C83+(転位計算2!D$7-TAN(C83)+C83)/TAN(C83)^2</f>
@@ -3949,7 +3949,7 @@
     <row r="85" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B85">
         <f>B84+(転位計算1!D$7-TAN(B84)+B84)/TAN(B84)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C85">
         <f>C84+(転位計算2!D$7-TAN(C84)+C84)/TAN(C84)^2</f>
@@ -3963,7 +3963,7 @@
     <row r="86" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B86">
         <f>B85+(転位計算1!D$7-TAN(B85)+B85)/TAN(B85)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C86">
         <f>C85+(転位計算2!D$7-TAN(C85)+C85)/TAN(C85)^2</f>
@@ -3977,7 +3977,7 @@
     <row r="87" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B87">
         <f>B86+(転位計算1!D$7-TAN(B86)+B86)/TAN(B86)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C87">
         <f>C86+(転位計算2!D$7-TAN(C86)+C86)/TAN(C86)^2</f>
@@ -3991,7 +3991,7 @@
     <row r="88" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B88">
         <f>B87+(転位計算1!D$7-TAN(B87)+B87)/TAN(B87)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C88">
         <f>C87+(転位計算2!D$7-TAN(C87)+C87)/TAN(C87)^2</f>
@@ -4005,7 +4005,7 @@
     <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B89">
         <f>B88+(転位計算1!D$7-TAN(B88)+B88)/TAN(B88)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C89">
         <f>C88+(転位計算2!D$7-TAN(C88)+C88)/TAN(C88)^2</f>
@@ -4019,7 +4019,7 @@
     <row r="90" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B90">
         <f>B89+(転位計算1!D$7-TAN(B89)+B89)/TAN(B89)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C90">
         <f>C89+(転位計算2!D$7-TAN(C89)+C89)/TAN(C89)^2</f>
@@ -4033,7 +4033,7 @@
     <row r="91" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B91">
         <f>B90+(転位計算1!D$7-TAN(B90)+B90)/TAN(B90)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C91">
         <f>C90+(転位計算2!D$7-TAN(C90)+C90)/TAN(C90)^2</f>
@@ -4047,7 +4047,7 @@
     <row r="92" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B92">
         <f>B91+(転位計算1!D$7-TAN(B91)+B91)/TAN(B91)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C92">
         <f>C91+(転位計算2!D$7-TAN(C91)+C91)/TAN(C91)^2</f>
@@ -4061,7 +4061,7 @@
     <row r="93" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B93">
         <f>B92+(転位計算1!D$7-TAN(B92)+B92)/TAN(B92)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C93">
         <f>C92+(転位計算2!D$7-TAN(C92)+C92)/TAN(C92)^2</f>
@@ -4075,7 +4075,7 @@
     <row r="94" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B94">
         <f>B93+(転位計算1!D$7-TAN(B93)+B93)/TAN(B93)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C94">
         <f>C93+(転位計算2!D$7-TAN(C93)+C93)/TAN(C93)^2</f>
@@ -4089,7 +4089,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B95">
         <f>B94+(転位計算1!D$7-TAN(B94)+B94)/TAN(B94)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C95">
         <f>C94+(転位計算2!D$7-TAN(C94)+C94)/TAN(C94)^2</f>
@@ -4103,7 +4103,7 @@
     <row r="96" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B96">
         <f>B95+(転位計算1!D$7-TAN(B95)+B95)/TAN(B95)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C96">
         <f>C95+(転位計算2!D$7-TAN(C95)+C95)/TAN(C95)^2</f>
@@ -4117,7 +4117,7 @@
     <row r="97" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B97">
         <f>B96+(転位計算1!D$7-TAN(B96)+B96)/TAN(B96)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C97">
         <f>C96+(転位計算2!D$7-TAN(C96)+C96)/TAN(C96)^2</f>
@@ -4131,7 +4131,7 @@
     <row r="98" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B98">
         <f>B97+(転位計算1!D$7-TAN(B97)+B97)/TAN(B97)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C98">
         <f>C97+(転位計算2!D$7-TAN(C97)+C97)/TAN(C97)^2</f>
@@ -4145,7 +4145,7 @@
     <row r="99" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B99">
         <f>B98+(転位計算1!D$7-TAN(B98)+B98)/TAN(B98)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C99">
         <f>C98+(転位計算2!D$7-TAN(C98)+C98)/TAN(C98)^2</f>
@@ -4159,7 +4159,7 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B100" s="13">
         <f>B99+(転位計算1!D$7-TAN(B99)+B99)/TAN(B99)^2</f>
-        <v>0.37962511916278036</v>
+        <v>0.40404680865511589</v>
       </c>
       <c r="C100" s="13">
         <f>C99+(転位計算2!D$7-TAN(C99)+C99)/TAN(C99)^2</f>

--- a/転位計算シート.xlsx
+++ b/転位計算シート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acps\Documents\srdc\srdc_ksh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E3F8B-F817-4E9B-9904-5C29D02821EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782239A2-4AAD-4091-BF88-D8312A232DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31530" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="転位計算1" sheetId="2" r:id="rId1"/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1480,7 +1480,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6">
         <v>0</v>
@@ -1508,11 +1508,11 @@
       </c>
       <c r="D7" s="5">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>2.3524804142097802E-2</v>
+        <v>1.4904456488424589E-2</v>
       </c>
       <c r="E7" s="6">
         <f>2*TAN(RADIANS(D3))*(D6+E6)/(D5+E5)+D4</f>
-        <v>2.3524804142097802E-2</v>
+        <v>1.4904456488424589E-2</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="D8" s="5">
         <f>D9*180/3.14</f>
-        <v>23.161918967490717</v>
+        <v>20.010175715224964</v>
       </c>
       <c r="E8" s="6">
         <f>D9*180/3.14</f>
-        <v>23.161918967490717</v>
+        <v>20.010175715224964</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="D9" s="5">
         <f>inv逆関数!B100</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="E9" s="6">
         <f>inv逆関数!B100</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1595,11 +1595,11 @@
       </c>
       <c r="D10" s="5">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.41942432285223052</v>
+        <v>1.2285583959183999E-3</v>
       </c>
       <c r="E10" s="6">
         <f>((D5+E5)/2)*((COS(RADIANS(D3))/COS(RADIANS(D8)))-1)</f>
-        <v>0.41942432285223052</v>
+        <v>1.2285583959183999E-3</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="10"/>
@@ -1625,11 +1625,11 @@
       </c>
       <c r="D11" s="5">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>38.838848645704459</v>
+        <v>38.002457116791838</v>
       </c>
       <c r="E11" s="6">
         <f>((D5+E5)/2+D10)*D2</f>
-        <v>38.838848645704459</v>
+        <v>38.002457116791838</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1691,15 +1691,15 @@
       </c>
       <c r="D13" s="5">
         <f>D11+D2*0.1</f>
-        <v>39.038848645704462</v>
+        <v>38.202457116791841</v>
       </c>
       <c r="E13" s="6">
         <f>D11+D2*0.1</f>
-        <v>39.038848645704462</v>
+        <v>38.202457116791841</v>
       </c>
       <c r="F13">
         <f>D11+0.1</f>
-        <v>38.938848645704461</v>
+        <v>38.10245711679184</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="10"/>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="D14" s="5">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>4.4388486457044607</v>
+        <v>4.5024571167918364</v>
       </c>
       <c r="E14" s="6">
         <f>(2.25+D10-(D6+E6))*D2</f>
-        <v>4.4388486457044607</v>
+        <v>4.5024571167918364</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="10"/>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="D15" s="5">
         <f>(1+D10-E6)*D2*2+D2*D5</f>
-        <v>25.677697291408922</v>
+        <v>24.004914233583673</v>
       </c>
       <c r="E15" s="6">
         <f>(1+D10-D6)*D2*2+D2*E5</f>
-        <v>59.877697291408921</v>
+        <v>60.004914233583676</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="10"/>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="D16" s="7">
         <f>D15-D14*2</f>
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="E16" s="8">
         <f>E15-E14*2</f>
@@ -2801,7 +2801,7 @@
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3">
         <f>1+(転位計算1!D$7-TAN(1)+1)/TAN(1)^2</f>
-        <v>0.77988918662215667</v>
+        <v>0.77633516445597217</v>
       </c>
       <c r="C3">
         <f>1+(転位計算2!D$7-TAN(1)+1)/TAN(1)^2</f>
@@ -2815,7 +2815,7 @@
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4">
         <f>B3+(転位計算1!D$7-TAN(B3)+B3)/TAN(B3)^2</f>
-        <v>0.59012490158183839</v>
+        <v>0.57849441451049177</v>
       </c>
       <c r="C4">
         <f>C3+(転位計算2!D$7-TAN(C3)+C3)/TAN(C3)^2</f>
@@ -2829,7 +2829,7 @@
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <f>B4+(転位計算1!D$7-TAN(B4)+B4)/TAN(B4)^2</f>
-        <v>0.46508372692381095</v>
+        <v>0.43868397988963437</v>
       </c>
       <c r="C5">
         <f>C4+(転位計算2!D$7-TAN(C4)+C4)/TAN(C4)^2</f>
@@ -2843,7 +2843,7 @@
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6">
         <f>B5+(転位計算1!D$7-TAN(B5)+B5)/TAN(B5)^2</f>
-        <v>0.41270912395967857</v>
+        <v>0.36788123018525931</v>
       </c>
       <c r="C6">
         <f>C5+(転位計算2!D$7-TAN(C5)+C5)/TAN(C5)^2</f>
@@ -2857,7 +2857,7 @@
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7">
         <f>B6+(転位計算1!D$7-TAN(B6)+B6)/TAN(B6)^2</f>
-        <v>0.40424892594501871</v>
+        <v>0.3500967780516121</v>
       </c>
       <c r="C7">
         <f>C6+(転位計算2!D$7-TAN(C6)+C6)/TAN(C6)^2</f>
@@ -2871,7 +2871,7 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8">
         <f>B7+(転位計算1!D$7-TAN(B7)+B7)/TAN(B7)^2</f>
-        <v>0.40404692159365474</v>
+        <v>0.34906968952843442</v>
       </c>
       <c r="C8">
         <f>C7+(転位計算2!D$7-TAN(C7)+C7)/TAN(C7)^2</f>
@@ -2885,7 +2885,7 @@
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9">
         <f>B8+(転位計算1!D$7-TAN(B8)+B8)/TAN(B8)^2</f>
-        <v>0.40404680865515141</v>
+        <v>0.34906639862151057</v>
       </c>
       <c r="C9">
         <f>C8+(転位計算2!D$7-TAN(C8)+C8)/TAN(C8)^2</f>
@@ -2899,7 +2899,7 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10">
         <f>B9+(転位計算1!D$7-TAN(B9)+B9)/TAN(B9)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C10">
         <f>C9+(転位計算2!D$7-TAN(C9)+C9)/TAN(C9)^2</f>
@@ -2913,7 +2913,7 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <f>B10+(転位計算1!D$7-TAN(B10)+B10)/TAN(B10)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C11">
         <f>C10+(転位計算2!D$7-TAN(C10)+C10)/TAN(C10)^2</f>
@@ -2927,7 +2927,7 @@
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12">
         <f>B11+(転位計算1!D$7-TAN(B11)+B11)/TAN(B11)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C12">
         <f>C11+(転位計算2!D$7-TAN(C11)+C11)/TAN(C11)^2</f>
@@ -2941,7 +2941,7 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13">
         <f>B12+(転位計算1!D$7-TAN(B12)+B12)/TAN(B12)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C13">
         <f>C12+(転位計算2!D$7-TAN(C12)+C12)/TAN(C12)^2</f>
@@ -2955,7 +2955,7 @@
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14">
         <f>B13+(転位計算1!D$7-TAN(B13)+B13)/TAN(B13)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C14">
         <f>C13+(転位計算2!D$7-TAN(C13)+C13)/TAN(C13)^2</f>
@@ -2969,7 +2969,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15">
         <f>B14+(転位計算1!D$7-TAN(B14)+B14)/TAN(B14)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C15">
         <f>C14+(転位計算2!D$7-TAN(C14)+C14)/TAN(C14)^2</f>
@@ -2983,7 +2983,7 @@
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16">
         <f>B15+(転位計算1!D$7-TAN(B15)+B15)/TAN(B15)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C16">
         <f>C15+(転位計算2!D$7-TAN(C15)+C15)/TAN(C15)^2</f>
@@ -2997,7 +2997,7 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17">
         <f>B16+(転位計算1!D$7-TAN(B16)+B16)/TAN(B16)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C17">
         <f>C16+(転位計算2!D$7-TAN(C16)+C16)/TAN(C16)^2</f>
@@ -3011,7 +3011,7 @@
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>B17+(転位計算1!D$7-TAN(B17)+B17)/TAN(B17)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C18">
         <f>C17+(転位計算2!D$7-TAN(C17)+C17)/TAN(C17)^2</f>
@@ -3025,7 +3025,7 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19">
         <f>B18+(転位計算1!D$7-TAN(B18)+B18)/TAN(B18)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C19">
         <f>C18+(転位計算2!D$7-TAN(C18)+C18)/TAN(C18)^2</f>
@@ -3039,7 +3039,7 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20">
         <f>B19+(転位計算1!D$7-TAN(B19)+B19)/TAN(B19)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C20">
         <f>C19+(転位計算2!D$7-TAN(C19)+C19)/TAN(C19)^2</f>
@@ -3053,7 +3053,7 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21">
         <f>B20+(転位計算1!D$7-TAN(B20)+B20)/TAN(B20)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C21">
         <f>C20+(転位計算2!D$7-TAN(C20)+C20)/TAN(C20)^2</f>
@@ -3067,7 +3067,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22">
         <f>B21+(転位計算1!D$7-TAN(B21)+B21)/TAN(B21)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C22">
         <f>C21+(転位計算2!D$7-TAN(C21)+C21)/TAN(C21)^2</f>
@@ -3081,7 +3081,7 @@
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23">
         <f>B22+(転位計算1!D$7-TAN(B22)+B22)/TAN(B22)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C23">
         <f>C22+(転位計算2!D$7-TAN(C22)+C22)/TAN(C22)^2</f>
@@ -3095,7 +3095,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24">
         <f>B23+(転位計算1!D$7-TAN(B23)+B23)/TAN(B23)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C24">
         <f>C23+(転位計算2!D$7-TAN(C23)+C23)/TAN(C23)^2</f>
@@ -3109,7 +3109,7 @@
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25">
         <f>B24+(転位計算1!D$7-TAN(B24)+B24)/TAN(B24)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C25">
         <f>C24+(転位計算2!D$7-TAN(C24)+C24)/TAN(C24)^2</f>
@@ -3123,7 +3123,7 @@
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26">
         <f>B25+(転位計算1!D$7-TAN(B25)+B25)/TAN(B25)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C26">
         <f>C25+(転位計算2!D$7-TAN(C25)+C25)/TAN(C25)^2</f>
@@ -3137,7 +3137,7 @@
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27">
         <f>B26+(転位計算1!D$7-TAN(B26)+B26)/TAN(B26)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C27">
         <f>C26+(転位計算2!D$7-TAN(C26)+C26)/TAN(C26)^2</f>
@@ -3151,7 +3151,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28">
         <f>B27+(転位計算1!D$7-TAN(B27)+B27)/TAN(B27)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C28">
         <f>C27+(転位計算2!D$7-TAN(C27)+C27)/TAN(C27)^2</f>
@@ -3165,7 +3165,7 @@
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>B28+(転位計算1!D$7-TAN(B28)+B28)/TAN(B28)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C29">
         <f>C28+(転位計算2!D$7-TAN(C28)+C28)/TAN(C28)^2</f>
@@ -3179,7 +3179,7 @@
     <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30">
         <f>B29+(転位計算1!D$7-TAN(B29)+B29)/TAN(B29)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C30">
         <f>C29+(転位計算2!D$7-TAN(C29)+C29)/TAN(C29)^2</f>
@@ -3193,7 +3193,7 @@
     <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31">
         <f>B30+(転位計算1!D$7-TAN(B30)+B30)/TAN(B30)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C31">
         <f>C30+(転位計算2!D$7-TAN(C30)+C30)/TAN(C30)^2</f>
@@ -3207,7 +3207,7 @@
     <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32">
         <f>B31+(転位計算1!D$7-TAN(B31)+B31)/TAN(B31)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C32">
         <f>C31+(転位計算2!D$7-TAN(C31)+C31)/TAN(C31)^2</f>
@@ -3221,7 +3221,7 @@
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33">
         <f>B32+(転位計算1!D$7-TAN(B32)+B32)/TAN(B32)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C33">
         <f>C32+(転位計算2!D$7-TAN(C32)+C32)/TAN(C32)^2</f>
@@ -3235,7 +3235,7 @@
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34">
         <f>B33+(転位計算1!D$7-TAN(B33)+B33)/TAN(B33)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C34">
         <f>C33+(転位計算2!D$7-TAN(C33)+C33)/TAN(C33)^2</f>
@@ -3249,7 +3249,7 @@
     <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35">
         <f>B34+(転位計算1!D$7-TAN(B34)+B34)/TAN(B34)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C35">
         <f>C34+(転位計算2!D$7-TAN(C34)+C34)/TAN(C34)^2</f>
@@ -3263,7 +3263,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36">
         <f>B35+(転位計算1!D$7-TAN(B35)+B35)/TAN(B35)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C36">
         <f>C35+(転位計算2!D$7-TAN(C35)+C35)/TAN(C35)^2</f>
@@ -3277,7 +3277,7 @@
     <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37">
         <f>B36+(転位計算1!D$7-TAN(B36)+B36)/TAN(B36)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C37">
         <f>C36+(転位計算2!D$7-TAN(C36)+C36)/TAN(C36)^2</f>
@@ -3291,7 +3291,7 @@
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38">
         <f>B37+(転位計算1!D$7-TAN(B37)+B37)/TAN(B37)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C38">
         <f>C37+(転位計算2!D$7-TAN(C37)+C37)/TAN(C37)^2</f>
@@ -3305,7 +3305,7 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39">
         <f>B38+(転位計算1!D$7-TAN(B38)+B38)/TAN(B38)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C39">
         <f>C38+(転位計算2!D$7-TAN(C38)+C38)/TAN(C38)^2</f>
@@ -3319,7 +3319,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40">
         <f>B39+(転位計算1!D$7-TAN(B39)+B39)/TAN(B39)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C40">
         <f>C39+(転位計算2!D$7-TAN(C39)+C39)/TAN(C39)^2</f>
@@ -3333,7 +3333,7 @@
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B41">
         <f>B40+(転位計算1!D$7-TAN(B40)+B40)/TAN(B40)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C41">
         <f>C40+(転位計算2!D$7-TAN(C40)+C40)/TAN(C40)^2</f>
@@ -3347,7 +3347,7 @@
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B42">
         <f>B41+(転位計算1!D$7-TAN(B41)+B41)/TAN(B41)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C42">
         <f>C41+(転位計算2!D$7-TAN(C41)+C41)/TAN(C41)^2</f>
@@ -3361,7 +3361,7 @@
     <row r="43" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B43">
         <f>B42+(転位計算1!D$7-TAN(B42)+B42)/TAN(B42)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C43">
         <f>C42+(転位計算2!D$7-TAN(C42)+C42)/TAN(C42)^2</f>
@@ -3375,7 +3375,7 @@
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B44">
         <f>B43+(転位計算1!D$7-TAN(B43)+B43)/TAN(B43)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C44">
         <f>C43+(転位計算2!D$7-TAN(C43)+C43)/TAN(C43)^2</f>
@@ -3389,7 +3389,7 @@
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B45">
         <f>B44+(転位計算1!D$7-TAN(B44)+B44)/TAN(B44)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C45">
         <f>C44+(転位計算2!D$7-TAN(C44)+C44)/TAN(C44)^2</f>
@@ -3403,7 +3403,7 @@
     <row r="46" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B46">
         <f>B45+(転位計算1!D$7-TAN(B45)+B45)/TAN(B45)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C46">
         <f>C45+(転位計算2!D$7-TAN(C45)+C45)/TAN(C45)^2</f>
@@ -3417,7 +3417,7 @@
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B47">
         <f>B46+(転位計算1!D$7-TAN(B46)+B46)/TAN(B46)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C47">
         <f>C46+(転位計算2!D$7-TAN(C46)+C46)/TAN(C46)^2</f>
@@ -3431,7 +3431,7 @@
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B48">
         <f>B47+(転位計算1!D$7-TAN(B47)+B47)/TAN(B47)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C48">
         <f>C47+(転位計算2!D$7-TAN(C47)+C47)/TAN(C47)^2</f>
@@ -3445,7 +3445,7 @@
     <row r="49" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B49">
         <f>B48+(転位計算1!D$7-TAN(B48)+B48)/TAN(B48)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C49">
         <f>C48+(転位計算2!D$7-TAN(C48)+C48)/TAN(C48)^2</f>
@@ -3459,7 +3459,7 @@
     <row r="50" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B50">
         <f>B49+(転位計算1!D$7-TAN(B49)+B49)/TAN(B49)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C50">
         <f>C49+(転位計算2!D$7-TAN(C49)+C49)/TAN(C49)^2</f>
@@ -3473,7 +3473,7 @@
     <row r="51" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B51">
         <f>B50+(転位計算1!D$7-TAN(B50)+B50)/TAN(B50)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C51">
         <f>C50+(転位計算2!D$7-TAN(C50)+C50)/TAN(C50)^2</f>
@@ -3487,7 +3487,7 @@
     <row r="52" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B52">
         <f>B51+(転位計算1!D$7-TAN(B51)+B51)/TAN(B51)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C52">
         <f>C51+(転位計算2!D$7-TAN(C51)+C51)/TAN(C51)^2</f>
@@ -3501,7 +3501,7 @@
     <row r="53" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B53">
         <f>B52+(転位計算1!D$7-TAN(B52)+B52)/TAN(B52)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C53">
         <f>C52+(転位計算2!D$7-TAN(C52)+C52)/TAN(C52)^2</f>
@@ -3515,7 +3515,7 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B54">
         <f>B53+(転位計算1!D$7-TAN(B53)+B53)/TAN(B53)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C54">
         <f>C53+(転位計算2!D$7-TAN(C53)+C53)/TAN(C53)^2</f>
@@ -3529,7 +3529,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B55">
         <f>B54+(転位計算1!D$7-TAN(B54)+B54)/TAN(B54)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C55">
         <f>C54+(転位計算2!D$7-TAN(C54)+C54)/TAN(C54)^2</f>
@@ -3543,7 +3543,7 @@
     <row r="56" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B56">
         <f>B55+(転位計算1!D$7-TAN(B55)+B55)/TAN(B55)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C56">
         <f>C55+(転位計算2!D$7-TAN(C55)+C55)/TAN(C55)^2</f>
@@ -3557,7 +3557,7 @@
     <row r="57" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B57">
         <f>B56+(転位計算1!D$7-TAN(B56)+B56)/TAN(B56)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C57">
         <f>C56+(転位計算2!D$7-TAN(C56)+C56)/TAN(C56)^2</f>
@@ -3571,7 +3571,7 @@
     <row r="58" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B58">
         <f>B57+(転位計算1!D$7-TAN(B57)+B57)/TAN(B57)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C58">
         <f>C57+(転位計算2!D$7-TAN(C57)+C57)/TAN(C57)^2</f>
@@ -3585,7 +3585,7 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B59">
         <f>B58+(転位計算1!D$7-TAN(B58)+B58)/TAN(B58)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C59">
         <f>C58+(転位計算2!D$7-TAN(C58)+C58)/TAN(C58)^2</f>
@@ -3599,7 +3599,7 @@
     <row r="60" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B60">
         <f>B59+(転位計算1!D$7-TAN(B59)+B59)/TAN(B59)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C60">
         <f>C59+(転位計算2!D$7-TAN(C59)+C59)/TAN(C59)^2</f>
@@ -3613,7 +3613,7 @@
     <row r="61" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B61">
         <f>B60+(転位計算1!D$7-TAN(B60)+B60)/TAN(B60)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C61">
         <f>C60+(転位計算2!D$7-TAN(C60)+C60)/TAN(C60)^2</f>
@@ -3627,7 +3627,7 @@
     <row r="62" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B62">
         <f>B61+(転位計算1!D$7-TAN(B61)+B61)/TAN(B61)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C62">
         <f>C61+(転位計算2!D$7-TAN(C61)+C61)/TAN(C61)^2</f>
@@ -3641,7 +3641,7 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B63">
         <f>B62+(転位計算1!D$7-TAN(B62)+B62)/TAN(B62)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C63">
         <f>C62+(転位計算2!D$7-TAN(C62)+C62)/TAN(C62)^2</f>
@@ -3655,7 +3655,7 @@
     <row r="64" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B64">
         <f>B63+(転位計算1!D$7-TAN(B63)+B63)/TAN(B63)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C64">
         <f>C63+(転位計算2!D$7-TAN(C63)+C63)/TAN(C63)^2</f>
@@ -3669,7 +3669,7 @@
     <row r="65" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B65">
         <f>B64+(転位計算1!D$7-TAN(B64)+B64)/TAN(B64)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C65">
         <f>C64+(転位計算2!D$7-TAN(C64)+C64)/TAN(C64)^2</f>
@@ -3683,7 +3683,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B66">
         <f>B65+(転位計算1!D$7-TAN(B65)+B65)/TAN(B65)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C66">
         <f>C65+(転位計算2!D$7-TAN(C65)+C65)/TAN(C65)^2</f>
@@ -3697,7 +3697,7 @@
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B67">
         <f>B66+(転位計算1!D$7-TAN(B66)+B66)/TAN(B66)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C67">
         <f>C66+(転位計算2!D$7-TAN(C66)+C66)/TAN(C66)^2</f>
@@ -3711,7 +3711,7 @@
     <row r="68" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B68">
         <f>B67+(転位計算1!D$7-TAN(B67)+B67)/TAN(B67)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C68">
         <f>C67+(転位計算2!D$7-TAN(C67)+C67)/TAN(C67)^2</f>
@@ -3725,7 +3725,7 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B69">
         <f>B68+(転位計算1!D$7-TAN(B68)+B68)/TAN(B68)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C69">
         <f>C68+(転位計算2!D$7-TAN(C68)+C68)/TAN(C68)^2</f>
@@ -3739,7 +3739,7 @@
     <row r="70" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B70">
         <f>B69+(転位計算1!D$7-TAN(B69)+B69)/TAN(B69)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C70">
         <f>C69+(転位計算2!D$7-TAN(C69)+C69)/TAN(C69)^2</f>
@@ -3753,7 +3753,7 @@
     <row r="71" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B71">
         <f>B70+(転位計算1!D$7-TAN(B70)+B70)/TAN(B70)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C71">
         <f>C70+(転位計算2!D$7-TAN(C70)+C70)/TAN(C70)^2</f>
@@ -3767,7 +3767,7 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B72">
         <f>B71+(転位計算1!D$7-TAN(B71)+B71)/TAN(B71)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C72">
         <f>C71+(転位計算2!D$7-TAN(C71)+C71)/TAN(C71)^2</f>
@@ -3781,7 +3781,7 @@
     <row r="73" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B73">
         <f>B72+(転位計算1!D$7-TAN(B72)+B72)/TAN(B72)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C73">
         <f>C72+(転位計算2!D$7-TAN(C72)+C72)/TAN(C72)^2</f>
@@ -3795,7 +3795,7 @@
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B74">
         <f>B73+(転位計算1!D$7-TAN(B73)+B73)/TAN(B73)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C74">
         <f>C73+(転位計算2!D$7-TAN(C73)+C73)/TAN(C73)^2</f>
@@ -3809,7 +3809,7 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B75">
         <f>B74+(転位計算1!D$7-TAN(B74)+B74)/TAN(B74)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C75">
         <f>C74+(転位計算2!D$7-TAN(C74)+C74)/TAN(C74)^2</f>
@@ -3823,7 +3823,7 @@
     <row r="76" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B76">
         <f>B75+(転位計算1!D$7-TAN(B75)+B75)/TAN(B75)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C76">
         <f>C75+(転位計算2!D$7-TAN(C75)+C75)/TAN(C75)^2</f>
@@ -3837,7 +3837,7 @@
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B77">
         <f>B76+(転位計算1!D$7-TAN(B76)+B76)/TAN(B76)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C77">
         <f>C76+(転位計算2!D$7-TAN(C76)+C76)/TAN(C76)^2</f>
@@ -3851,7 +3851,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B78">
         <f>B77+(転位計算1!D$7-TAN(B77)+B77)/TAN(B77)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C78">
         <f>C77+(転位計算2!D$7-TAN(C77)+C77)/TAN(C77)^2</f>
@@ -3865,7 +3865,7 @@
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B79">
         <f>B78+(転位計算1!D$7-TAN(B78)+B78)/TAN(B78)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C79">
         <f>C78+(転位計算2!D$7-TAN(C78)+C78)/TAN(C78)^2</f>
@@ -3879,7 +3879,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B80">
         <f>B79+(転位計算1!D$7-TAN(B79)+B79)/TAN(B79)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C80">
         <f>C79+(転位計算2!D$7-TAN(C79)+C79)/TAN(C79)^2</f>
@@ -3893,7 +3893,7 @@
     <row r="81" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B81">
         <f>B80+(転位計算1!D$7-TAN(B80)+B80)/TAN(B80)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C81">
         <f>C80+(転位計算2!D$7-TAN(C80)+C80)/TAN(C80)^2</f>
@@ -3907,7 +3907,7 @@
     <row r="82" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B82">
         <f>B81+(転位計算1!D$7-TAN(B81)+B81)/TAN(B81)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C82">
         <f>C81+(転位計算2!D$7-TAN(C81)+C81)/TAN(C81)^2</f>
@@ -3921,7 +3921,7 @@
     <row r="83" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B83">
         <f>B82+(転位計算1!D$7-TAN(B82)+B82)/TAN(B82)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C83">
         <f>C82+(転位計算2!D$7-TAN(C82)+C82)/TAN(C82)^2</f>
@@ -3935,7 +3935,7 @@
     <row r="84" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B84">
         <f>B83+(転位計算1!D$7-TAN(B83)+B83)/TAN(B83)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C84">
         <f>C83+(転位計算2!D$7-TAN(C83)+C83)/TAN(C83)^2</f>
@@ -3949,7 +3949,7 @@
     <row r="85" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B85">
         <f>B84+(転位計算1!D$7-TAN(B84)+B84)/TAN(B84)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C85">
         <f>C84+(転位計算2!D$7-TAN(C84)+C84)/TAN(C84)^2</f>
@@ -3963,7 +3963,7 @@
     <row r="86" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B86">
         <f>B85+(転位計算1!D$7-TAN(B85)+B85)/TAN(B85)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C86">
         <f>C85+(転位計算2!D$7-TAN(C85)+C85)/TAN(C85)^2</f>
@@ -3977,7 +3977,7 @@
     <row r="87" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B87">
         <f>B86+(転位計算1!D$7-TAN(B86)+B86)/TAN(B86)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C87">
         <f>C86+(転位計算2!D$7-TAN(C86)+C86)/TAN(C86)^2</f>
@@ -3991,7 +3991,7 @@
     <row r="88" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B88">
         <f>B87+(転位計算1!D$7-TAN(B87)+B87)/TAN(B87)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C88">
         <f>C87+(転位計算2!D$7-TAN(C87)+C87)/TAN(C87)^2</f>
@@ -4005,7 +4005,7 @@
     <row r="89" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B89">
         <f>B88+(転位計算1!D$7-TAN(B88)+B88)/TAN(B88)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C89">
         <f>C88+(転位計算2!D$7-TAN(C88)+C88)/TAN(C88)^2</f>
@@ -4019,7 +4019,7 @@
     <row r="90" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B90">
         <f>B89+(転位計算1!D$7-TAN(B89)+B89)/TAN(B89)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C90">
         <f>C89+(転位計算2!D$7-TAN(C89)+C89)/TAN(C89)^2</f>
@@ -4033,7 +4033,7 @@
     <row r="91" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B91">
         <f>B90+(転位計算1!D$7-TAN(B90)+B90)/TAN(B90)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C91">
         <f>C90+(転位計算2!D$7-TAN(C90)+C90)/TAN(C90)^2</f>
@@ -4047,7 +4047,7 @@
     <row r="92" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B92">
         <f>B91+(転位計算1!D$7-TAN(B91)+B91)/TAN(B91)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C92">
         <f>C91+(転位計算2!D$7-TAN(C91)+C91)/TAN(C91)^2</f>
@@ -4061,7 +4061,7 @@
     <row r="93" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B93">
         <f>B92+(転位計算1!D$7-TAN(B92)+B92)/TAN(B92)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C93">
         <f>C92+(転位計算2!D$7-TAN(C92)+C92)/TAN(C92)^2</f>
@@ -4075,7 +4075,7 @@
     <row r="94" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B94">
         <f>B93+(転位計算1!D$7-TAN(B93)+B93)/TAN(B93)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C94">
         <f>C93+(転位計算2!D$7-TAN(C93)+C93)/TAN(C93)^2</f>
@@ -4089,7 +4089,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B95">
         <f>B94+(転位計算1!D$7-TAN(B94)+B94)/TAN(B94)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C95">
         <f>C94+(転位計算2!D$7-TAN(C94)+C94)/TAN(C94)^2</f>
@@ -4103,7 +4103,7 @@
     <row r="96" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B96">
         <f>B95+(転位計算1!D$7-TAN(B95)+B95)/TAN(B95)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C96">
         <f>C95+(転位計算2!D$7-TAN(C95)+C95)/TAN(C95)^2</f>
@@ -4117,7 +4117,7 @@
     <row r="97" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B97">
         <f>B96+(転位計算1!D$7-TAN(B96)+B96)/TAN(B96)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C97">
         <f>C96+(転位計算2!D$7-TAN(C96)+C96)/TAN(C96)^2</f>
@@ -4131,7 +4131,7 @@
     <row r="98" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B98">
         <f>B97+(転位計算1!D$7-TAN(B97)+B97)/TAN(B97)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C98">
         <f>C97+(転位計算2!D$7-TAN(C97)+C97)/TAN(C97)^2</f>
@@ -4145,7 +4145,7 @@
     <row r="99" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B99">
         <f>B98+(転位計算1!D$7-TAN(B98)+B98)/TAN(B98)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C99">
         <f>C98+(転位計算2!D$7-TAN(C98)+C98)/TAN(C98)^2</f>
@@ -4159,7 +4159,7 @@
     <row r="100" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B100" s="13">
         <f>B99+(転位計算1!D$7-TAN(B99)+B99)/TAN(B99)^2</f>
-        <v>0.40404680865511589</v>
+        <v>0.3490663985878133</v>
       </c>
       <c r="C100" s="13">
         <f>C99+(転位計算2!D$7-TAN(C99)+C99)/TAN(C99)^2</f>
